--- a/src/analysis/comparisons.xlsx
+++ b/src/analysis/comparisons.xlsx
@@ -1,13 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ds\sync\gdrive_ds\My Drive\work\gdrive-workspaces\git\nn_catalyst\src\analysis\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67297506-802D-4D57-A54F-E9AB66D83F1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Comparison" sheetId="1" r:id="rId4"/>
+    <sheet name="Comparison" sheetId="1" r:id="rId1"/>
+    <sheet name="Plan" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext uri="GoogleSheetsCustomDataVersion2">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="1Q4H3tXQ4E8qzhsJGPCFwZE5IlJXbz1uQqOO18/+RAU="/>
     </ext>
@@ -16,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="22">
   <si>
     <t>New Train</t>
   </si>
@@ -62,51 +83,76 @@
   <si>
     <t>2. Ideas for new approach for problem columns</t>
   </si>
+  <si>
+    <t>f1</t>
+  </si>
+  <si>
+    <t>f2</t>
+  </si>
+  <si>
+    <t>f1508</t>
+  </si>
+  <si>
+    <t>t27</t>
+  </si>
+  <si>
+    <t>t7</t>
+  </si>
+  <si>
+    <t>t26</t>
+  </si>
+  <si>
+    <t>Use targets as features</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
     </font>
     <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -128,48 +174,63 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+  <cellXfs count="14">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -359,263 +420,265 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:BH1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="5.5"/>
-    <col customWidth="1" min="2" max="2" width="11.88"/>
-    <col customWidth="1" min="3" max="3" width="5.5"/>
-    <col customWidth="1" min="4" max="4" width="11.88"/>
-    <col customWidth="1" min="5" max="5" width="5.5"/>
-    <col customWidth="1" min="6" max="6" width="11.88"/>
-    <col customWidth="1" min="7" max="7" width="5.5"/>
-    <col customWidth="1" min="8" max="8" width="11.88"/>
-    <col customWidth="1" min="9" max="9" width="5.5"/>
-    <col customWidth="1" min="10" max="10" width="19.88"/>
-    <col customWidth="1" min="11" max="11" width="5.5"/>
-    <col customWidth="1" min="12" max="12" width="11.88"/>
-    <col customWidth="1" min="13" max="13" width="5.5"/>
-    <col customWidth="1" min="14" max="14" width="11.88"/>
-    <col customWidth="1" min="15" max="15" width="5.5"/>
-    <col customWidth="1" min="16" max="16" width="11.88"/>
-    <col customWidth="1" min="17" max="17" width="5.5"/>
-    <col customWidth="1" min="18" max="18" width="11.88"/>
-    <col customWidth="1" min="19" max="19" width="5.5"/>
-    <col customWidth="1" min="20" max="20" width="11.88"/>
-    <col customWidth="1" min="21" max="21" width="5.5"/>
-    <col customWidth="1" min="22" max="22" width="11.88"/>
-    <col customWidth="1" min="23" max="23" width="5.5"/>
-    <col customWidth="1" min="24" max="24" width="11.88"/>
-    <col customWidth="1" min="25" max="25" width="5.5"/>
-    <col customWidth="1" min="26" max="26" width="11.88"/>
-    <col customWidth="1" min="27" max="27" width="5.5"/>
-    <col customWidth="1" min="28" max="28" width="11.88"/>
-    <col customWidth="1" min="29" max="29" width="5.5"/>
-    <col customWidth="1" min="30" max="30" width="11.88"/>
-    <col customWidth="1" min="31" max="31" width="5.5"/>
-    <col customWidth="1" min="32" max="32" width="11.88"/>
-    <col customWidth="1" min="33" max="33" width="5.5"/>
-    <col customWidth="1" min="34" max="34" width="11.88"/>
-    <col customWidth="1" min="35" max="35" width="5.5"/>
-    <col customWidth="1" min="36" max="36" width="11.88"/>
-    <col customWidth="1" min="37" max="37" width="5.5"/>
-    <col customWidth="1" min="38" max="38" width="11.88"/>
-    <col customWidth="1" min="39" max="39" width="5.5"/>
-    <col customWidth="1" min="40" max="40" width="11.88"/>
-    <col customWidth="1" min="41" max="41" width="5.5"/>
-    <col customWidth="1" min="42" max="42" width="11.88"/>
-    <col customWidth="1" min="43" max="43" width="5.5"/>
-    <col customWidth="1" min="44" max="44" width="11.88"/>
-    <col customWidth="1" min="45" max="45" width="5.5"/>
-    <col customWidth="1" min="46" max="46" width="11.88"/>
-    <col customWidth="1" min="47" max="47" width="5.5"/>
-    <col customWidth="1" min="48" max="48" width="11.88"/>
-    <col customWidth="1" min="49" max="49" width="5.5"/>
-    <col customWidth="1" min="50" max="50" width="11.88"/>
-    <col customWidth="1" min="51" max="51" width="5.5"/>
-    <col customWidth="1" min="52" max="52" width="11.88"/>
-    <col customWidth="1" min="53" max="53" width="5.5"/>
-    <col customWidth="1" min="54" max="54" width="11.88"/>
-    <col customWidth="1" min="55" max="55" width="5.5"/>
-    <col customWidth="1" min="56" max="56" width="11.88"/>
-    <col customWidth="1" min="57" max="57" width="5.5"/>
-    <col customWidth="1" min="58" max="60" width="11.88"/>
+    <col min="1" max="1" width="5.453125" customWidth="1"/>
+    <col min="2" max="2" width="11.90625" customWidth="1"/>
+    <col min="3" max="3" width="5.453125" customWidth="1"/>
+    <col min="4" max="4" width="11.90625" customWidth="1"/>
+    <col min="5" max="5" width="5.453125" customWidth="1"/>
+    <col min="6" max="6" width="11.90625" customWidth="1"/>
+    <col min="7" max="7" width="5.453125" customWidth="1"/>
+    <col min="8" max="8" width="11.90625" customWidth="1"/>
+    <col min="9" max="9" width="5.453125" customWidth="1"/>
+    <col min="10" max="10" width="19.90625" customWidth="1"/>
+    <col min="11" max="11" width="5.453125" customWidth="1"/>
+    <col min="12" max="12" width="11.90625" customWidth="1"/>
+    <col min="13" max="13" width="5.453125" customWidth="1"/>
+    <col min="14" max="14" width="11.90625" customWidth="1"/>
+    <col min="15" max="15" width="5.453125" customWidth="1"/>
+    <col min="16" max="16" width="11.90625" customWidth="1"/>
+    <col min="17" max="17" width="5.453125" customWidth="1"/>
+    <col min="18" max="18" width="11.90625" customWidth="1"/>
+    <col min="19" max="19" width="5.453125" customWidth="1"/>
+    <col min="20" max="20" width="11.90625" customWidth="1"/>
+    <col min="21" max="21" width="5.453125" customWidth="1"/>
+    <col min="22" max="22" width="11.90625" customWidth="1"/>
+    <col min="23" max="23" width="5.453125" customWidth="1"/>
+    <col min="24" max="24" width="11.90625" customWidth="1"/>
+    <col min="25" max="25" width="5.453125" customWidth="1"/>
+    <col min="26" max="26" width="11.90625" customWidth="1"/>
+    <col min="27" max="27" width="5.453125" customWidth="1"/>
+    <col min="28" max="28" width="11.90625" customWidth="1"/>
+    <col min="29" max="29" width="5.453125" customWidth="1"/>
+    <col min="30" max="30" width="11.90625" customWidth="1"/>
+    <col min="31" max="31" width="5.453125" customWidth="1"/>
+    <col min="32" max="32" width="11.90625" customWidth="1"/>
+    <col min="33" max="33" width="5.453125" customWidth="1"/>
+    <col min="34" max="34" width="11.90625" customWidth="1"/>
+    <col min="35" max="35" width="5.453125" customWidth="1"/>
+    <col min="36" max="36" width="11.90625" customWidth="1"/>
+    <col min="37" max="37" width="5.453125" customWidth="1"/>
+    <col min="38" max="38" width="11.90625" customWidth="1"/>
+    <col min="39" max="39" width="5.453125" customWidth="1"/>
+    <col min="40" max="40" width="11.90625" customWidth="1"/>
+    <col min="41" max="41" width="5.453125" customWidth="1"/>
+    <col min="42" max="42" width="11.90625" customWidth="1"/>
+    <col min="43" max="43" width="5.453125" customWidth="1"/>
+    <col min="44" max="44" width="11.90625" customWidth="1"/>
+    <col min="45" max="45" width="5.453125" customWidth="1"/>
+    <col min="46" max="46" width="11.90625" customWidth="1"/>
+    <col min="47" max="47" width="5.453125" customWidth="1"/>
+    <col min="48" max="48" width="11.90625" customWidth="1"/>
+    <col min="49" max="49" width="5.453125" customWidth="1"/>
+    <col min="50" max="50" width="11.90625" customWidth="1"/>
+    <col min="51" max="51" width="5.453125" customWidth="1"/>
+    <col min="52" max="52" width="11.90625" customWidth="1"/>
+    <col min="53" max="53" width="5.453125" customWidth="1"/>
+    <col min="54" max="54" width="11.90625" customWidth="1"/>
+    <col min="55" max="55" width="5.453125" customWidth="1"/>
+    <col min="56" max="56" width="11.90625" customWidth="1"/>
+    <col min="57" max="57" width="5.453125" customWidth="1"/>
+    <col min="58" max="60" width="11.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" customHeight="1">
+    <row r="1" spans="1:60" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" ht="14.25" customHeight="1">
+    <row r="2" spans="1:60" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C2" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D2" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E2" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="F2" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G2" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="H2" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="I2" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="J2" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="K2" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="L2" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="M2" s="1">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="N2" s="1">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="O2" s="1">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="P2" s="1">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="Q2" s="1">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="R2" s="1">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="S2" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="T2" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="U2" s="1">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="V2" s="1">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="W2" s="1">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="X2" s="1">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="Y2" s="1">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="Z2" s="1">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="AA2" s="1">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="AB2" s="1">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="AC2" s="1">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="AD2" s="1">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="AE2" s="1">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="AF2" s="1">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="AG2" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="AH2" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="AI2" s="1">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="AJ2" s="1">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="AK2" s="1">
-        <v>19.0</v>
+        <v>19</v>
       </c>
       <c r="AL2" s="1">
-        <v>19.0</v>
+        <v>19</v>
       </c>
       <c r="AM2" s="1">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="AN2" s="1">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="AO2" s="1">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="AP2" s="1">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="AQ2" s="1">
-        <v>22.0</v>
+        <v>22</v>
       </c>
       <c r="AR2" s="1">
-        <v>22.0</v>
+        <v>22</v>
       </c>
       <c r="AS2" s="1">
-        <v>23.0</v>
+        <v>23</v>
       </c>
       <c r="AT2" s="1">
-        <v>23.0</v>
+        <v>23</v>
       </c>
       <c r="AU2" s="1">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="AV2" s="1">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="AW2" s="1">
-        <v>25.0</v>
+        <v>25</v>
       </c>
       <c r="AX2" s="1">
-        <v>25.0</v>
+        <v>25</v>
       </c>
       <c r="AY2" s="1">
-        <v>26.0</v>
+        <v>26</v>
       </c>
       <c r="AZ2" s="1">
-        <v>26.0</v>
+        <v>26</v>
       </c>
       <c r="BA2" s="1">
-        <v>27.0</v>
+        <v>27</v>
       </c>
       <c r="BB2" s="1">
-        <v>27.0</v>
+        <v>27</v>
       </c>
       <c r="BC2" s="1">
-        <v>28.0</v>
+        <v>28</v>
       </c>
       <c r="BD2" s="1">
-        <v>28.0</v>
+        <v>28</v>
       </c>
       <c r="BE2" s="1">
-        <v>29.0</v>
+        <v>29</v>
       </c>
       <c r="BF2" s="1">
-        <v>29.0</v>
+        <v>29</v>
       </c>
       <c r="BG2" s="1"/>
       <c r="BH2" s="1"/>
     </row>
-    <row r="3" ht="14.25" customHeight="1">
+    <row r="3" spans="1:60" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -626,79 +689,79 @@
         <v>1</v>
       </c>
       <c r="D3" s="2">
-        <v>0.9815782949345456</v>
+        <v>0.98157829493454563</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F3" s="2">
-        <v>0.9712287150270948</v>
+        <v>0.97122871502709485</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="H3" s="2">
-        <v>0.9417147836663152</v>
+        <v>0.94171478366631522</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="J3" s="2">
-        <v>0.7022989032422027</v>
+        <v>0.70229890324220268</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="L3" s="2">
-        <v>0.9940959642365101</v>
+        <v>0.99409596423651014</v>
       </c>
       <c r="M3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="N3" s="2">
-        <v>0.9952266100935361</v>
+        <v>0.99522661009353608</v>
       </c>
       <c r="O3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="P3" s="2">
-        <v>0.9823075199408101</v>
+        <v>0.98230751994081011</v>
       </c>
       <c r="Q3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="R3" s="2">
-        <v>0.9741218116688826</v>
+        <v>0.97412181166888256</v>
       </c>
       <c r="S3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="T3" s="2">
-        <v>0.984221213232978</v>
+        <v>0.98422121323297795</v>
       </c>
       <c r="U3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="V3" s="2">
-        <v>0.9755825760719476</v>
+        <v>0.97558257607194765</v>
       </c>
       <c r="W3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="X3" s="2">
-        <v>0.9704873178122128</v>
+        <v>0.97048731781221276</v>
       </c>
       <c r="Y3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="Z3" s="2">
-        <v>0.9293626378088707</v>
+        <v>0.92936263780887074</v>
       </c>
       <c r="AA3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="AB3" s="2">
-        <v>0.8837659148822019</v>
+        <v>0.88376591488220191</v>
       </c>
       <c r="AC3" s="2" t="s">
         <v>1</v>
@@ -710,7 +773,7 @@
         <v>1</v>
       </c>
       <c r="AF3" s="2">
-        <v>0.9931601561649872</v>
+        <v>0.99316015616498721</v>
       </c>
       <c r="AG3" s="2" t="s">
         <v>1</v>
@@ -722,163 +785,163 @@
         <v>1</v>
       </c>
       <c r="AJ3" s="2">
-        <v>0.9379402736370376</v>
+        <v>0.93794027363703758</v>
       </c>
       <c r="AK3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="AL3" s="2">
-        <v>0.9629365782180215</v>
+        <v>0.96293657821802148</v>
       </c>
       <c r="AM3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="AN3" s="2">
-        <v>0.9358884250714185</v>
+        <v>0.93588842507141845</v>
       </c>
       <c r="AO3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="AP3" s="2">
-        <v>0.9371976686694687</v>
+        <v>0.93719766866946874</v>
       </c>
       <c r="AQ3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="AR3" s="2">
-        <v>0.9454551279131237</v>
+        <v>0.94545512791312369</v>
       </c>
       <c r="AS3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="AT3" s="2">
-        <v>0.9123177454298325</v>
+        <v>0.91231774542983246</v>
       </c>
       <c r="AU3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="AV3" s="2">
-        <v>0.8530206917343309</v>
+        <v>0.85302069173433093</v>
       </c>
       <c r="AW3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="AX3" s="2">
-        <v>0.8265253654932221</v>
+        <v>0.82652536549322209</v>
       </c>
       <c r="AY3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="AZ3" s="2">
-        <v>0.9930389247536309</v>
+        <v>0.99303892475363087</v>
       </c>
       <c r="BA3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="BB3" s="2">
-        <v>0.9942198097881116</v>
+        <v>0.99421980978811164</v>
       </c>
       <c r="BC3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="BD3" s="2">
-        <v>0.9791328702770721</v>
+        <v>0.97913287027707208</v>
       </c>
       <c r="BE3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="BF3" s="2">
-        <v>0.9761017463078026</v>
+        <v>0.97610174630780255</v>
       </c>
       <c r="BG3" s="3">
-        <f t="shared" ref="BG3:BG5" si="1">AVERAGE(A3:BF3)</f>
-        <v>0.9421611587</v>
-      </c>
-    </row>
-    <row r="4" ht="14.25" hidden="1" customHeight="1">
+        <f t="shared" ref="BG3:BG5" si="0">AVERAGE(A3:BF3)</f>
+        <v>0.94216115873998096</v>
+      </c>
+    </row>
+    <row r="4" spans="1:60" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="3">
-        <v>0.004433326745235703</v>
+        <v>4.4333267452357026E-3</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="3">
-        <v>0.004678438519733248</v>
+        <v>4.6784385197332478E-3</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F4" s="3">
-        <v>0.03095038472225282</v>
+        <v>3.0950384722252821E-2</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>2</v>
       </c>
       <c r="H4" s="3">
-        <v>0.02991345477504754</v>
+        <v>2.9913454775047539E-2</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>2</v>
       </c>
       <c r="J4" s="3">
-        <v>1.084609839352494</v>
+        <v>1.0846098393524941</v>
       </c>
       <c r="K4" s="3" t="s">
         <v>2</v>
       </c>
       <c r="L4" s="3">
-        <v>89.08250549044949</v>
+        <v>89.082505490449492</v>
       </c>
       <c r="M4" s="3" t="s">
         <v>2</v>
       </c>
       <c r="N4" s="3">
-        <v>80.09934679035297</v>
+        <v>80.099346790352968</v>
       </c>
       <c r="O4" s="3" t="s">
         <v>2</v>
       </c>
       <c r="P4" s="3">
-        <v>0.00524095411146651</v>
+        <v>5.2409541114665104E-3</v>
       </c>
       <c r="Q4" s="3" t="s">
         <v>2</v>
       </c>
       <c r="R4" s="3">
-        <v>0.006513104778422979</v>
+        <v>6.5131047784229793E-3</v>
       </c>
       <c r="S4" s="3" t="s">
         <v>2</v>
       </c>
       <c r="T4" s="3">
-        <v>0.005094984315316795</v>
+        <v>5.0949843153167947E-3</v>
       </c>
       <c r="U4" s="3" t="s">
         <v>2</v>
       </c>
       <c r="V4" s="3">
-        <v>0.005668465652401649</v>
+        <v>5.6684656524016493E-3</v>
       </c>
       <c r="W4" s="3" t="s">
         <v>2</v>
       </c>
       <c r="X4" s="3">
-        <v>0.02964022466623461</v>
+        <v>2.9640224666234609E-2</v>
       </c>
       <c r="Y4" s="3" t="s">
         <v>2</v>
       </c>
       <c r="Z4" s="3">
-        <v>0.03477468478507408</v>
+        <v>3.4774684785074082E-2</v>
       </c>
       <c r="AA4" s="3" t="s">
         <v>2</v>
       </c>
       <c r="AB4" s="3">
-        <v>0.04035713706274529</v>
+        <v>4.0357137062745289E-2</v>
       </c>
       <c r="AC4" s="3" t="s">
         <v>2</v>
@@ -890,55 +953,55 @@
         <v>2</v>
       </c>
       <c r="AF4" s="3">
-        <v>95.88270309630909</v>
+        <v>95.882703096309086</v>
       </c>
       <c r="AG4" s="3" t="s">
         <v>2</v>
       </c>
       <c r="AH4" s="3">
-        <v>84.12745069893035</v>
+        <v>84.127450698930346</v>
       </c>
       <c r="AI4" s="3" t="s">
         <v>2</v>
       </c>
       <c r="AJ4" s="3">
-        <v>0.01067764580548748</v>
+        <v>1.067764580548748E-2</v>
       </c>
       <c r="AK4" s="3" t="s">
         <v>2</v>
       </c>
       <c r="AL4" s="3">
-        <v>0.007318772317534891</v>
+        <v>7.318772317534891E-3</v>
       </c>
       <c r="AM4" s="3" t="s">
         <v>2</v>
       </c>
       <c r="AN4" s="3">
-        <v>0.006197475186445887</v>
+        <v>6.1974751864458874E-3</v>
       </c>
       <c r="AO4" s="3" t="s">
         <v>2</v>
       </c>
       <c r="AP4" s="3">
-        <v>0.009387001996377403</v>
+        <v>9.3870019963774032E-3</v>
       </c>
       <c r="AQ4" s="3" t="s">
         <v>2</v>
       </c>
       <c r="AR4" s="3">
-        <v>0.03994773245956505</v>
+        <v>3.9947732459565052E-2</v>
       </c>
       <c r="AS4" s="3" t="s">
         <v>2</v>
       </c>
       <c r="AT4" s="3">
-        <v>0.03371441125100481</v>
+        <v>3.3714411251004807E-2</v>
       </c>
       <c r="AU4" s="3" t="s">
         <v>2</v>
       </c>
       <c r="AV4" s="3">
-        <v>0.06882533748447425</v>
+        <v>6.8825337484474253E-2</v>
       </c>
       <c r="AW4" s="3" t="s">
         <v>2</v>
@@ -950,13 +1013,13 @@
         <v>2</v>
       </c>
       <c r="AZ4" s="3">
-        <v>96.72997276642329</v>
+        <v>96.729972766423288</v>
       </c>
       <c r="BA4" s="3" t="s">
         <v>2</v>
       </c>
       <c r="BB4" s="3">
-        <v>88.14378172861342</v>
+        <v>88.143781728613419</v>
       </c>
       <c r="BC4" s="3" t="s">
         <v>2</v>
@@ -971,46 +1034,46 @@
         <v>0.1409007799975564</v>
       </c>
       <c r="BG4" s="3">
-        <f t="shared" si="1"/>
-        <v>18.57458992</v>
-      </c>
-    </row>
-    <row r="5" ht="14.25" hidden="1" customHeight="1">
+        <f t="shared" si="0"/>
+        <v>18.574589921382156</v>
+      </c>
+    </row>
+    <row r="5" spans="1:60" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="3">
-        <v>0.003337874178227428</v>
+        <v>3.3378741782274278E-3</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D5" s="3">
-        <v>0.003552684589067525</v>
+        <v>3.5526845890675252E-3</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F5" s="3">
-        <v>0.01981959708518963</v>
+        <v>1.9819597085189631E-2</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>3</v>
       </c>
       <c r="H5" s="3">
-        <v>0.02110533387046458</v>
+        <v>2.1105333870464579E-2</v>
       </c>
       <c r="I5" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J5" s="3">
-        <v>0.8184600881711219</v>
+        <v>0.81846008817112192</v>
       </c>
       <c r="K5" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L5" s="3">
-        <v>41.79867568876281</v>
+        <v>41.798675688762813</v>
       </c>
       <c r="M5" s="3" t="s">
         <v>3</v>
@@ -1022,127 +1085,127 @@
         <v>3</v>
       </c>
       <c r="P5" s="3">
-        <v>0.003671740752353003</v>
+        <v>3.671740752353003E-3</v>
       </c>
       <c r="Q5" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R5" s="3">
-        <v>0.004786242309561741</v>
+        <v>4.7862423095617413E-3</v>
       </c>
       <c r="S5" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T5" s="3">
-        <v>0.003890842858768719</v>
+        <v>3.8908428587687192E-3</v>
       </c>
       <c r="U5" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V5" s="3">
-        <v>0.003799839061762439</v>
+        <v>3.7998390617624391E-3</v>
       </c>
       <c r="W5" s="3" t="s">
         <v>3</v>
       </c>
       <c r="X5" s="3">
-        <v>0.01959189227998281</v>
+        <v>1.9591892279982811E-2</v>
       </c>
       <c r="Y5" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Z5" s="3">
-        <v>0.02508587327948102</v>
+        <v>2.508587327948102E-2</v>
       </c>
       <c r="AA5" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AB5" s="3">
-        <v>0.0303995799447546</v>
+        <v>3.03995799447546E-2</v>
       </c>
       <c r="AC5" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AD5" s="3">
-        <v>0.9498667491476103</v>
+        <v>0.94986674914761027</v>
       </c>
       <c r="AE5" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AF5" s="3">
-        <v>45.12798953786073</v>
+        <v>45.127989537860728</v>
       </c>
       <c r="AG5" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AH5" s="3">
-        <v>37.98724882946373</v>
+        <v>37.987248829463731</v>
       </c>
       <c r="AI5" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AJ5" s="3">
-        <v>0.00691021805236915</v>
+        <v>6.9102180523691499E-3</v>
       </c>
       <c r="AK5" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AL5" s="3">
-        <v>0.005402821408389385</v>
+        <v>5.4028214083893852E-3</v>
       </c>
       <c r="AM5" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AN5" s="3">
-        <v>0.004459807648860932</v>
+        <v>4.4598076488609317E-3</v>
       </c>
       <c r="AO5" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AP5" s="3">
-        <v>0.00636031260950064</v>
+        <v>6.36031260950064E-3</v>
       </c>
       <c r="AQ5" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AR5" s="3">
-        <v>0.02705872037281934</v>
+        <v>2.7058720372819339E-2</v>
       </c>
       <c r="AS5" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AT5" s="3">
-        <v>0.02396586127944159</v>
+        <v>2.3965861279441589E-2</v>
       </c>
       <c r="AU5" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AV5" s="3">
-        <v>0.04842853066599504</v>
+        <v>4.8428530665995041E-2</v>
       </c>
       <c r="AW5" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AX5" s="3">
-        <v>1.19771937474968</v>
+        <v>1.1977193747496799</v>
       </c>
       <c r="AY5" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AZ5" s="3">
-        <v>49.8945288783631</v>
+        <v>49.894528878363097</v>
       </c>
       <c r="BA5" s="3" t="s">
         <v>3</v>
       </c>
       <c r="BB5" s="3">
-        <v>36.66806133232512</v>
+        <v>36.668061332325117</v>
       </c>
       <c r="BC5" s="3" t="s">
         <v>3</v>
       </c>
       <c r="BD5" s="3">
-        <v>0.08433877588096828</v>
+        <v>8.4338775880968275E-2</v>
       </c>
       <c r="BE5" s="3" t="s">
         <v>3</v>
@@ -1151,21 +1214,21 @@
         <v>0.1014422129115348</v>
       </c>
       <c r="BG5" s="3">
-        <f t="shared" si="1"/>
-        <v>8.889418463</v>
-      </c>
-    </row>
-    <row r="6" ht="14.25" customHeight="1">
+        <f t="shared" si="0"/>
+        <v>8.8894184633937918</v>
+      </c>
+    </row>
+    <row r="6" spans="1:60" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" ht="14.25" customHeight="1">
+    <row r="7" spans="1:60" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B7" s="3">
-        <v>0.9269096504271768</v>
+        <v>0.92690965042717677</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>1</v>
@@ -1177,121 +1240,121 @@
         <v>1</v>
       </c>
       <c r="F7" s="3">
-        <v>0.9315442992590539</v>
+        <v>0.93154429925905391</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>1</v>
       </c>
       <c r="H7" s="4">
-        <v>0.866217212300655</v>
+        <v>0.86621721230065496</v>
       </c>
       <c r="I7" s="3" t="s">
         <v>1</v>
       </c>
       <c r="J7" s="4">
-        <v>0.4831496087229108</v>
+        <v>0.48314960872291079</v>
       </c>
       <c r="K7" s="3" t="s">
         <v>1</v>
       </c>
       <c r="L7" s="3">
-        <v>0.9943789598713629</v>
+        <v>0.99437895987136293</v>
       </c>
       <c r="M7" s="3" t="s">
         <v>1</v>
       </c>
       <c r="N7" s="3">
-        <v>0.995275965810466</v>
+        <v>0.99527596581046596</v>
       </c>
       <c r="O7" s="3" t="s">
         <v>1</v>
       </c>
       <c r="P7" s="3">
-        <v>0.9624420677210139</v>
+        <v>0.96244206772101393</v>
       </c>
       <c r="Q7" s="3" t="s">
         <v>1</v>
       </c>
       <c r="R7" s="3">
-        <v>0.9387818070786312</v>
+        <v>0.93878180707863124</v>
       </c>
       <c r="S7" s="3" t="s">
         <v>1</v>
       </c>
       <c r="T7" s="3">
-        <v>0.9681067098582158</v>
+        <v>0.96810670985821579</v>
       </c>
       <c r="U7" s="3" t="s">
         <v>1</v>
       </c>
       <c r="V7" s="3">
-        <v>0.9432028017841976</v>
+        <v>0.94320280178419758</v>
       </c>
       <c r="W7" s="3" t="s">
         <v>1</v>
       </c>
       <c r="X7" s="3">
-        <v>0.9323452527713221</v>
+        <v>0.93234525277132207</v>
       </c>
       <c r="Y7" s="3" t="s">
         <v>1</v>
       </c>
       <c r="Z7" s="4">
-        <v>0.8492807449877406</v>
+        <v>0.84928074498774064</v>
       </c>
       <c r="AA7" s="3" t="s">
         <v>1</v>
       </c>
       <c r="AB7" s="4">
-        <v>0.7196397501367284</v>
+        <v>0.71963975013672843</v>
       </c>
       <c r="AC7" s="3" t="s">
         <v>1</v>
       </c>
       <c r="AD7" s="4">
-        <v>0.6357653183630687</v>
+        <v>0.63576531836306871</v>
       </c>
       <c r="AE7" s="3" t="s">
         <v>1</v>
       </c>
       <c r="AF7" s="3">
-        <v>0.9933173362017246</v>
+        <v>0.99331733620172458</v>
       </c>
       <c r="AG7" s="3" t="s">
         <v>1</v>
       </c>
       <c r="AH7" s="3">
-        <v>0.9949118538368034</v>
+        <v>0.99491185383680336</v>
       </c>
       <c r="AI7" s="3" t="s">
         <v>1</v>
       </c>
       <c r="AJ7" s="4">
-        <v>0.8405464886745105</v>
+        <v>0.84054648867451054</v>
       </c>
       <c r="AK7" s="3" t="s">
         <v>1</v>
       </c>
       <c r="AL7" s="3">
-        <v>0.9198442587917215</v>
+        <v>0.91984425879172149</v>
       </c>
       <c r="AM7" s="3" t="s">
         <v>1</v>
       </c>
       <c r="AN7" s="4">
-        <v>0.8310103906056951</v>
+        <v>0.83101039060569515</v>
       </c>
       <c r="AO7" s="3" t="s">
         <v>1</v>
       </c>
       <c r="AP7" s="4">
-        <v>0.8592171824860502</v>
+        <v>0.85921718248605017</v>
       </c>
       <c r="AQ7" s="3" t="s">
         <v>1</v>
       </c>
       <c r="AR7" s="3">
-        <v>0.8789017282795247</v>
+        <v>0.87890172827952473</v>
       </c>
       <c r="AS7" s="3" t="s">
         <v>1</v>
@@ -1303,7 +1366,7 @@
         <v>1</v>
       </c>
       <c r="AV7" s="4">
-        <v>0.6961096685434862</v>
+        <v>0.69610966854348622</v>
       </c>
       <c r="AW7" s="3" t="s">
         <v>1</v>
@@ -1315,115 +1378,115 @@
         <v>1</v>
       </c>
       <c r="AZ7" s="3">
-        <v>0.9929366439741882</v>
+        <v>0.99293664397418824</v>
       </c>
       <c r="BA7" s="3" t="s">
         <v>1</v>
       </c>
       <c r="BB7" s="3">
-        <v>0.9939446316173635</v>
+        <v>0.99394463161736346</v>
       </c>
       <c r="BC7" s="3" t="s">
         <v>1</v>
       </c>
       <c r="BD7" s="3">
-        <v>0.9606031141949913</v>
+        <v>0.96060311419499134</v>
       </c>
       <c r="BE7" s="3" t="s">
         <v>1</v>
       </c>
       <c r="BF7" s="3">
-        <v>0.9339693067541681</v>
+        <v>0.93396930675416812</v>
       </c>
       <c r="BG7" s="3">
-        <f t="shared" ref="BG7:BG9" si="2">AVERAGE(A7:BF7)</f>
-        <v>0.8753284529</v>
-      </c>
-    </row>
-    <row r="8" ht="14.25" hidden="1" customHeight="1">
+        <f t="shared" ref="BG7:BG9" si="1">AVERAGE(A7:BF7)</f>
+        <v>0.87532845291386929</v>
+      </c>
+    </row>
+    <row r="8" spans="1:60" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B8" s="3">
-        <v>0.006409941993779929</v>
+        <v>6.4099419937799287E-3</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D8" s="3">
-        <v>0.007439797101765584</v>
+        <v>7.4397971017655844E-3</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F8" s="3">
-        <v>0.04584637492581343</v>
+        <v>4.5846374925813428E-2</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>2</v>
       </c>
       <c r="H8" s="3">
-        <v>0.04466410332555498</v>
+        <v>4.4664103325554982E-2</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>2</v>
       </c>
       <c r="J8" s="3">
-        <v>1.421192779855509</v>
+        <v>1.4211927798555091</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>2</v>
       </c>
       <c r="L8" s="3">
-        <v>89.77966572338973</v>
+        <v>89.779665723389726</v>
       </c>
       <c r="M8" s="3" t="s">
         <v>2</v>
       </c>
       <c r="N8" s="3">
-        <v>82.30447556240453</v>
+        <v>82.304475562404534</v>
       </c>
       <c r="O8" s="3" t="s">
         <v>2</v>
       </c>
       <c r="P8" s="3">
-        <v>0.007605086707126979</v>
+        <v>7.605086707126979E-3</v>
       </c>
       <c r="Q8" s="3" t="s">
         <v>2</v>
       </c>
       <c r="R8" s="3">
-        <v>0.0100450755516858</v>
+        <v>1.00450755516858E-2</v>
       </c>
       <c r="S8" s="3" t="s">
         <v>2</v>
       </c>
       <c r="T8" s="3">
-        <v>0.00709881012698305</v>
+        <v>7.0988101269830496E-3</v>
       </c>
       <c r="U8" s="3" t="s">
         <v>2</v>
       </c>
       <c r="V8" s="3">
-        <v>0.0086429300735307</v>
+        <v>8.6429300735307007E-3</v>
       </c>
       <c r="W8" s="3" t="s">
         <v>2</v>
       </c>
       <c r="X8" s="3">
-        <v>0.04337451889096383</v>
+        <v>4.3374518890963831E-2</v>
       </c>
       <c r="Y8" s="3" t="s">
         <v>2</v>
       </c>
       <c r="Z8" s="3">
-        <v>0.04917976910484224</v>
+        <v>4.9179769104842237E-2</v>
       </c>
       <c r="AA8" s="3" t="s">
         <v>2</v>
       </c>
       <c r="AB8" s="3">
-        <v>0.06146347271820379</v>
+        <v>6.1463472718203793E-2</v>
       </c>
       <c r="AC8" s="3" t="s">
         <v>2</v>
@@ -1435,7 +1498,7 @@
         <v>2</v>
       </c>
       <c r="AF8" s="3">
-        <v>97.89121671731417</v>
+        <v>97.891216717314165</v>
       </c>
       <c r="AG8" s="3" t="s">
         <v>2</v>
@@ -1447,43 +1510,43 @@
         <v>2</v>
       </c>
       <c r="AJ8" s="3">
-        <v>0.01691513789306943</v>
+        <v>1.6915137893069431E-2</v>
       </c>
       <c r="AK8" s="3" t="s">
         <v>2</v>
       </c>
       <c r="AL8" s="3">
-        <v>0.01070668966504459</v>
+        <v>1.0706689665044591E-2</v>
       </c>
       <c r="AM8" s="3" t="s">
         <v>2</v>
       </c>
       <c r="AN8" s="3">
-        <v>0.01006065317181382</v>
+        <v>1.0060653171813819E-2</v>
       </c>
       <c r="AO8" s="3" t="s">
         <v>2</v>
       </c>
       <c r="AP8" s="3">
-        <v>0.01392950570705671</v>
+        <v>1.392950570705671E-2</v>
       </c>
       <c r="AQ8" s="3" t="s">
         <v>2</v>
       </c>
       <c r="AR8" s="3">
-        <v>0.05746540500943126</v>
+        <v>5.7465405009431259E-2</v>
       </c>
       <c r="AS8" s="3" t="s">
         <v>2</v>
       </c>
       <c r="AT8" s="3">
-        <v>0.05228864354891573</v>
+        <v>5.2288643548915728E-2</v>
       </c>
       <c r="AU8" s="3" t="s">
         <v>2</v>
       </c>
       <c r="AV8" s="3">
-        <v>0.09941811091349856</v>
+        <v>9.9418110913498559E-2</v>
       </c>
       <c r="AW8" s="3" t="s">
         <v>2</v>
@@ -1495,13 +1558,13 @@
         <v>2</v>
       </c>
       <c r="AZ8" s="3">
-        <v>100.6420743160864</v>
+        <v>100.64207431608639</v>
       </c>
       <c r="BA8" s="3" t="s">
         <v>2</v>
       </c>
       <c r="BB8" s="3">
-        <v>93.18408224603637</v>
+        <v>93.184082246036368</v>
       </c>
       <c r="BC8" s="3" t="s">
         <v>2</v>
@@ -1516,34 +1579,34 @@
         <v>0.2318276888386884</v>
       </c>
       <c r="BG8" s="3">
-        <f t="shared" si="2"/>
-        <v>19.16246652</v>
-      </c>
-    </row>
-    <row r="9" ht="14.25" hidden="1" customHeight="1">
+        <f t="shared" si="1"/>
+        <v>19.162466517474844</v>
+      </c>
+    </row>
+    <row r="9" spans="1:60" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B9" s="3">
-        <v>0.004798948781046763</v>
+        <v>4.7989487810467628E-3</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D9" s="3">
-        <v>0.005369723235330013</v>
+        <v>5.3697232353300131E-3</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F9" s="3">
-        <v>0.02724850961311014</v>
+        <v>2.724850961311014E-2</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>3</v>
       </c>
       <c r="H9" s="3">
-        <v>0.03017187762967909</v>
+        <v>3.017187762967909E-2</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>3</v>
@@ -1555,7 +1618,7 @@
         <v>3</v>
       </c>
       <c r="L9" s="3">
-        <v>43.74235206020496</v>
+        <v>43.742352060204958</v>
       </c>
       <c r="M9" s="3" t="s">
         <v>3</v>
@@ -1567,103 +1630,103 @@
         <v>3</v>
       </c>
       <c r="P9" s="3">
-        <v>0.005012842857841219</v>
+        <v>5.0128428578412191E-3</v>
       </c>
       <c r="Q9" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R9" s="3">
-        <v>0.006740373051311711</v>
+        <v>6.740373051311711E-3</v>
       </c>
       <c r="S9" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T9" s="3">
-        <v>0.005394237374482321</v>
+        <v>5.3942373744823207E-3</v>
       </c>
       <c r="U9" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V9" s="3">
-        <v>0.00534491338833548</v>
+        <v>5.3449133883354798E-3</v>
       </c>
       <c r="W9" s="3" t="s">
         <v>3</v>
       </c>
       <c r="X9" s="3">
-        <v>0.02649866115658792</v>
+        <v>2.6498661156587919E-2</v>
       </c>
       <c r="Y9" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Z9" s="3">
-        <v>0.03379020682839657</v>
+        <v>3.379020682839657E-2</v>
       </c>
       <c r="AA9" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AB9" s="3">
-        <v>0.04435832935861295</v>
+        <v>4.4358329358612947E-2</v>
       </c>
       <c r="AC9" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AD9" s="3">
-        <v>1.350173038086688</v>
+        <v>1.3501730380866881</v>
       </c>
       <c r="AE9" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AF9" s="3">
-        <v>46.82766479566241</v>
+        <v>46.827664795662407</v>
       </c>
       <c r="AG9" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AH9" s="3">
-        <v>40.36271299003892</v>
+        <v>40.362712990038922</v>
       </c>
       <c r="AI9" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AJ9" s="3">
-        <v>0.01037716920382711</v>
+        <v>1.037716920382711E-2</v>
       </c>
       <c r="AK9" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AL9" s="3">
-        <v>0.007777016647581997</v>
+        <v>7.777016647581997E-3</v>
       </c>
       <c r="AM9" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AN9" s="3">
-        <v>0.007086850470792329</v>
+        <v>7.0868504707923292E-3</v>
       </c>
       <c r="AO9" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AP9" s="3">
-        <v>0.009223793404913073</v>
+        <v>9.2237934049130728E-3</v>
       </c>
       <c r="AQ9" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AR9" s="3">
-        <v>0.03520792026621316</v>
+        <v>3.5207920266213159E-2</v>
       </c>
       <c r="AS9" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AT9" s="3">
-        <v>0.03573854604414055</v>
+        <v>3.5738546044140548E-2</v>
       </c>
       <c r="AU9" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AV9" s="3">
-        <v>0.06721346743596061</v>
+        <v>6.7213467435960614E-2</v>
       </c>
       <c r="AW9" s="3" t="s">
         <v>3</v>
@@ -1675,13 +1738,13 @@
         <v>3</v>
       </c>
       <c r="AZ9" s="3">
-        <v>52.24777677710428</v>
+        <v>52.247776777104278</v>
       </c>
       <c r="BA9" s="3" t="s">
         <v>3</v>
       </c>
       <c r="BB9" s="3">
-        <v>40.73035992678509</v>
+        <v>40.730359926785091</v>
       </c>
       <c r="BC9" s="3" t="s">
         <v>3</v>
@@ -1693,85 +1756,85 @@
         <v>3</v>
       </c>
       <c r="BF9" s="3">
-        <v>0.1560243773063391</v>
+        <v>0.15602437730633911</v>
       </c>
       <c r="BG9" s="3">
-        <f t="shared" si="2"/>
-        <v>9.430555428</v>
-      </c>
-    </row>
-    <row r="10" ht="14.25" customHeight="1">
+        <f t="shared" si="1"/>
+        <v>9.4305554281240482</v>
+      </c>
+    </row>
+    <row r="10" spans="1:60" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="H10" s="4"/>
     </row>
-    <row r="11" ht="14.25" customHeight="1">
+    <row r="11" spans="1:60" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B11" s="5">
-        <v>0.916871208029932</v>
+        <v>0.91687120802993205</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>1</v>
       </c>
       <c r="D11" s="5">
-        <v>0.9539054369291197</v>
+        <v>0.95390543692911967</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>1</v>
       </c>
       <c r="F11" s="5">
-        <v>0.9433193145282545</v>
+        <v>0.94331931452825446</v>
       </c>
       <c r="G11" s="5" t="s">
         <v>1</v>
       </c>
       <c r="H11" s="5">
-        <v>0.8654658545359787</v>
+        <v>0.86546585453597868</v>
       </c>
       <c r="I11" s="5" t="s">
         <v>1</v>
       </c>
       <c r="J11" s="5">
-        <v>0.5196701279358897</v>
+        <v>0.51967012793588974</v>
       </c>
       <c r="K11" s="5" t="s">
         <v>1</v>
       </c>
       <c r="L11" s="5">
-        <v>0.9937706948280667</v>
+        <v>0.99377069482806668</v>
       </c>
       <c r="M11" s="5" t="s">
         <v>1</v>
       </c>
       <c r="N11" s="5">
-        <v>0.9950078901773425</v>
+        <v>0.99500789017734248</v>
       </c>
       <c r="O11" s="5" t="s">
         <v>1</v>
       </c>
       <c r="P11" s="5">
-        <v>0.9617583804261254</v>
+        <v>0.96175838042612538</v>
       </c>
       <c r="Q11" s="5" t="s">
         <v>1</v>
       </c>
       <c r="R11" s="5">
-        <v>0.9433098904818402</v>
+        <v>0.94330989048184022</v>
       </c>
       <c r="S11" s="5" t="s">
         <v>1</v>
       </c>
       <c r="T11" s="5">
-        <v>0.9640962364392139</v>
+        <v>0.96409623643921394</v>
       </c>
       <c r="U11" s="5" t="s">
         <v>1</v>
       </c>
       <c r="V11" s="5">
-        <v>0.9352368725284341</v>
+        <v>0.93523687252843413</v>
       </c>
       <c r="W11" s="5" t="s">
         <v>1</v>
@@ -1783,129 +1846,129 @@
         <v>1</v>
       </c>
       <c r="Z11" s="5">
-        <v>0.8521350431478417</v>
+        <v>0.85213504314784172</v>
       </c>
       <c r="AA11" s="5" t="s">
         <v>1</v>
       </c>
       <c r="AB11" s="5">
-        <v>0.6664370660590773</v>
+        <v>0.66643706605907727</v>
       </c>
       <c r="AC11" s="5" t="s">
         <v>1</v>
       </c>
       <c r="AD11" s="5">
-        <v>0.6137032649781763</v>
+        <v>0.61370326497817629</v>
       </c>
       <c r="AE11" s="5" t="s">
         <v>1</v>
       </c>
       <c r="AF11" s="5">
-        <v>0.9936326192501577</v>
+        <v>0.99363261925015767</v>
       </c>
       <c r="AG11" s="5" t="s">
         <v>1</v>
       </c>
       <c r="AH11" s="5">
-        <v>0.9947029310810422</v>
+        <v>0.99470293108104224</v>
       </c>
       <c r="AI11" s="5" t="s">
         <v>1</v>
       </c>
       <c r="AJ11" s="5">
-        <v>0.8456683612949573</v>
+        <v>0.84566836129495726</v>
       </c>
       <c r="AK11" s="5" t="s">
         <v>1</v>
       </c>
       <c r="AL11" s="5">
-        <v>0.9178080701342519</v>
+        <v>0.91780807013425192</v>
       </c>
       <c r="AM11" s="5" t="s">
         <v>1</v>
       </c>
       <c r="AN11" s="5">
-        <v>0.8346992624472532</v>
+        <v>0.83469926244725323</v>
       </c>
       <c r="AO11" s="5" t="s">
         <v>1</v>
       </c>
       <c r="AP11" s="5">
-        <v>0.8632063606623571</v>
+        <v>0.86320636066235712</v>
       </c>
       <c r="AQ11" s="5" t="s">
         <v>1</v>
       </c>
       <c r="AR11" s="5">
-        <v>0.893625224900051</v>
+        <v>0.89362522490005103</v>
       </c>
       <c r="AS11" s="5" t="s">
         <v>1</v>
       </c>
       <c r="AT11" s="5">
-        <v>0.776814247891806</v>
+        <v>0.77681424789180598</v>
       </c>
       <c r="AU11" s="5" t="s">
         <v>1</v>
       </c>
       <c r="AV11" s="5">
-        <v>0.6881873035773156</v>
+        <v>0.68818730357731561</v>
       </c>
       <c r="AW11" s="5" t="s">
         <v>1</v>
       </c>
       <c r="AX11" s="5">
-        <v>0.6149132008003986</v>
+        <v>0.61491320080039857</v>
       </c>
       <c r="AY11" s="5" t="s">
         <v>1</v>
       </c>
       <c r="AZ11" s="5">
-        <v>0.9927759014393135</v>
+        <v>0.99277590143931349</v>
       </c>
       <c r="BA11" s="5" t="s">
         <v>1</v>
       </c>
       <c r="BB11" s="5">
-        <v>0.9942537178544881</v>
+        <v>0.99425371785448813</v>
       </c>
       <c r="BC11" s="5" t="s">
         <v>1</v>
       </c>
       <c r="BD11" s="5">
-        <v>0.9561105470924953</v>
+        <v>0.95611054709249532</v>
       </c>
       <c r="BE11" s="5" t="s">
         <v>1</v>
       </c>
       <c r="BF11" s="5">
-        <v>0.9362406934289654</v>
-      </c>
-    </row>
-    <row r="12" ht="14.25" hidden="1" customHeight="1">
+        <v>0.93624069342896543</v>
+      </c>
+    </row>
+    <row r="12" spans="1:60" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B12" s="3">
-        <v>0.006728221648999159</v>
+        <v>6.7282216489991586E-3</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D12" s="3">
-        <v>0.007397871226226667</v>
+        <v>7.397871226226667E-3</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F12" s="3">
-        <v>0.04502125871074887</v>
+        <v>4.5021258710748871E-2</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>2</v>
       </c>
       <c r="H12" s="3">
-        <v>0.04514527442780796</v>
+        <v>4.5145274427807962E-2</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>2</v>
@@ -1917,55 +1980,55 @@
         <v>2</v>
       </c>
       <c r="L12" s="3">
-        <v>89.07410347392207</v>
+        <v>89.074103473922065</v>
       </c>
       <c r="M12" s="3" t="s">
         <v>2</v>
       </c>
       <c r="N12" s="3">
-        <v>79.73898869061482</v>
+        <v>79.738988690614818</v>
       </c>
       <c r="O12" s="3" t="s">
         <v>2</v>
       </c>
       <c r="P12" s="3">
-        <v>0.007589138079872212</v>
+        <v>7.5891380798722118E-3</v>
       </c>
       <c r="Q12" s="3" t="s">
         <v>2</v>
       </c>
       <c r="R12" s="3">
-        <v>0.009595566718888818</v>
+        <v>9.5955667188888181E-3</v>
       </c>
       <c r="S12" s="3" t="s">
         <v>2</v>
       </c>
       <c r="T12" s="3">
-        <v>0.007512339118194204</v>
+        <v>7.5123391181942042E-3</v>
       </c>
       <c r="U12" s="3" t="s">
         <v>2</v>
       </c>
       <c r="V12" s="3">
-        <v>0.009117186346504302</v>
+        <v>9.117186346504302E-3</v>
       </c>
       <c r="W12" s="3" t="s">
         <v>2</v>
       </c>
       <c r="X12" s="3">
-        <v>0.04414145387363462</v>
+        <v>4.414145387363462E-2</v>
       </c>
       <c r="Y12" s="3" t="s">
         <v>2</v>
       </c>
       <c r="Z12" s="3">
-        <v>0.05034661514318392</v>
+        <v>5.034661514318392E-2</v>
       </c>
       <c r="AA12" s="3" t="s">
         <v>2</v>
       </c>
       <c r="AB12" s="3">
-        <v>0.06888661279366291</v>
+        <v>6.8886612793662913E-2</v>
       </c>
       <c r="AC12" s="3" t="s">
         <v>2</v>
@@ -1977,7 +2040,7 @@
         <v>2</v>
       </c>
       <c r="AF12" s="3">
-        <v>90.05567476885541</v>
+        <v>90.055674768855411</v>
       </c>
       <c r="AG12" s="3" t="s">
         <v>2</v>
@@ -1989,37 +2052,37 @@
         <v>2</v>
       </c>
       <c r="AJ12" s="3">
-        <v>0.01723688132352022</v>
+        <v>1.723688132352022E-2</v>
       </c>
       <c r="AK12" s="3" t="s">
         <v>2</v>
       </c>
       <c r="AL12" s="3">
-        <v>0.01081282099067336</v>
+        <v>1.081282099067336E-2</v>
       </c>
       <c r="AM12" s="3" t="s">
         <v>2</v>
       </c>
       <c r="AN12" s="3">
-        <v>0.009917165499580454</v>
+        <v>9.9171654995804537E-3</v>
       </c>
       <c r="AO12" s="3" t="s">
         <v>2</v>
       </c>
       <c r="AP12" s="3">
-        <v>0.01400030530326032</v>
+        <v>1.4000305303260321E-2</v>
       </c>
       <c r="AQ12" s="3" t="s">
         <v>2</v>
       </c>
       <c r="AR12" s="3">
-        <v>0.05721489995865692</v>
+        <v>5.7214899958656917E-2</v>
       </c>
       <c r="AS12" s="3" t="s">
         <v>2</v>
       </c>
       <c r="AT12" s="3">
-        <v>0.05306140091500062</v>
+        <v>5.3061400915000619E-2</v>
       </c>
       <c r="AU12" s="3" t="s">
         <v>2</v>
@@ -2031,25 +2094,25 @@
         <v>2</v>
       </c>
       <c r="AX12" s="3">
-        <v>2.52239443223022</v>
+        <v>2.5223944322302199</v>
       </c>
       <c r="AY12" s="3" t="s">
         <v>2</v>
       </c>
       <c r="AZ12" s="3">
-        <v>95.92432078073796</v>
+        <v>95.924320780737958</v>
       </c>
       <c r="BA12" s="3" t="s">
         <v>2</v>
       </c>
       <c r="BB12" s="3">
-        <v>85.55147636442943</v>
+        <v>85.551476364429433</v>
       </c>
       <c r="BC12" s="3" t="s">
         <v>2</v>
       </c>
       <c r="BD12" s="3">
-        <v>0.1611651605568256</v>
+        <v>0.16116516055682559</v>
       </c>
       <c r="BE12" s="3" t="s">
         <v>2</v>
@@ -2058,102 +2121,102 @@
         <v>0.2334404287019467</v>
       </c>
     </row>
-    <row r="13" ht="14.25" hidden="1" customHeight="1">
+    <row r="13" spans="1:60" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B13" s="3">
-        <v>0.004914324653759931</v>
+        <v>4.914324653759931E-3</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D13" s="3">
-        <v>0.005329783590630013</v>
+        <v>5.329783590630013E-3</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F13" s="3">
-        <v>0.02722688921051193</v>
+        <v>2.7226889210511931E-2</v>
       </c>
       <c r="G13" s="3" t="s">
         <v>3</v>
       </c>
       <c r="H13" s="3">
-        <v>0.03023319003207035</v>
+        <v>3.023319003207035E-2</v>
       </c>
       <c r="I13" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J13" s="3">
-        <v>1.043344554373801</v>
+        <v>1.0433445543738009</v>
       </c>
       <c r="K13" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L13" s="3">
-        <v>44.09079375797113</v>
+        <v>44.090793757971127</v>
       </c>
       <c r="M13" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N13" s="3">
-        <v>45.93463928657901</v>
+        <v>45.934639286579007</v>
       </c>
       <c r="O13" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P13" s="3">
-        <v>0.005120518256107215</v>
+        <v>5.1205182561072154E-3</v>
       </c>
       <c r="Q13" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R13" s="3">
-        <v>0.006623220814589096</v>
+        <v>6.6232208145890958E-3</v>
       </c>
       <c r="S13" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T13" s="3">
-        <v>0.005529593527065065</v>
+        <v>5.5295935270650654E-3</v>
       </c>
       <c r="U13" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V13" s="3">
-        <v>0.005488377264673554</v>
+        <v>5.4883772646735539E-3</v>
       </c>
       <c r="W13" s="3" t="s">
         <v>3</v>
       </c>
       <c r="X13" s="3">
-        <v>0.02747159761699073</v>
+        <v>2.747159761699073E-2</v>
       </c>
       <c r="Y13" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Z13" s="3">
-        <v>0.03412848759896128</v>
+        <v>3.4128487598961282E-2</v>
       </c>
       <c r="AA13" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AB13" s="3">
-        <v>0.0463910414405018</v>
+        <v>4.6391041440501803E-2</v>
       </c>
       <c r="AC13" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AD13" s="3">
-        <v>1.40706801107132</v>
+        <v>1.4070680110713201</v>
       </c>
       <c r="AE13" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AF13" s="3">
-        <v>46.51428369168362</v>
+        <v>46.514283691683623</v>
       </c>
       <c r="AG13" s="3" t="s">
         <v>3</v>
@@ -2165,61 +2228,61 @@
         <v>3</v>
       </c>
       <c r="AJ13" s="3">
-        <v>0.01047819512964519</v>
+        <v>1.047819512964519E-2</v>
       </c>
       <c r="AK13" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AL13" s="3">
-        <v>0.007840897936597046</v>
+        <v>7.8408979365970459E-3</v>
       </c>
       <c r="AM13" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AN13" s="3">
-        <v>0.007088394870059645</v>
+        <v>7.0883948700596446E-3</v>
       </c>
       <c r="AO13" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AP13" s="3">
-        <v>0.009065729332382172</v>
+        <v>9.0657293323821719E-3</v>
       </c>
       <c r="AQ13" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AR13" s="3">
-        <v>0.03626937590753665</v>
+        <v>3.626937590753665E-2</v>
       </c>
       <c r="AS13" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AT13" s="3">
-        <v>0.0365377429222069</v>
+        <v>3.6537742922206899E-2</v>
       </c>
       <c r="AU13" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AV13" s="3">
-        <v>0.06862253742146573</v>
+        <v>6.8622537421465735E-2</v>
       </c>
       <c r="AW13" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AX13" s="3">
-        <v>1.788613940556861</v>
+        <v>1.7886139405568611</v>
       </c>
       <c r="AY13" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AZ13" s="3">
-        <v>50.77023499990402</v>
+        <v>50.770234999904019</v>
       </c>
       <c r="BA13" s="3" t="s">
         <v>3</v>
       </c>
       <c r="BB13" s="3">
-        <v>39.8609963184778</v>
+        <v>39.860996318477802</v>
       </c>
       <c r="BC13" s="3" t="s">
         <v>3</v>
@@ -2231,56 +2294,56 @@
         <v>3</v>
       </c>
       <c r="BF13" s="3">
-        <v>0.1571040344957476</v>
-      </c>
-    </row>
-    <row r="14" ht="14.25" customHeight="1">
+        <v>0.15710403449574761</v>
+      </c>
+    </row>
+    <row r="14" spans="1:60" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="15" ht="14.25" customHeight="1">
+    <row r="15" spans="1:60" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B15" s="6">
-        <v>0.9621472846967132</v>
+        <v>0.96214728469671318</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>1</v>
       </c>
       <c r="D15" s="6">
-        <v>0.9779699138378296</v>
+        <v>0.97796991383782961</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>1</v>
       </c>
       <c r="F15" s="6">
-        <v>0.9660707029188412</v>
+        <v>0.96607070291884123</v>
       </c>
       <c r="G15" s="6" t="s">
         <v>1</v>
       </c>
       <c r="H15" s="6">
-        <v>0.9265503135130723</v>
+        <v>0.92655031351307227</v>
       </c>
       <c r="I15" s="6" t="s">
         <v>1</v>
       </c>
       <c r="J15" s="6">
-        <v>0.6611532714625974</v>
+        <v>0.66115327146259739</v>
       </c>
       <c r="K15" s="6" t="s">
         <v>1</v>
       </c>
       <c r="L15" s="6">
-        <v>0.9923869545851641</v>
+        <v>0.99238695458516413</v>
       </c>
       <c r="M15" s="6" t="s">
         <v>1</v>
       </c>
       <c r="N15" s="6">
-        <v>0.9931566806365595</v>
+        <v>0.99315668063655949</v>
       </c>
       <c r="O15" s="6" t="s">
         <v>1</v>
@@ -2292,37 +2355,37 @@
         <v>1</v>
       </c>
       <c r="R15" s="6">
-        <v>0.9722116020090281</v>
+        <v>0.97221160200902812</v>
       </c>
       <c r="S15" s="6" t="s">
         <v>1</v>
       </c>
       <c r="T15" s="6">
-        <v>0.9804182592777816</v>
+        <v>0.98041825927778159</v>
       </c>
       <c r="U15" s="6" t="s">
         <v>1</v>
       </c>
       <c r="V15" s="6">
-        <v>0.9659304379253106</v>
+        <v>0.96593043792531064</v>
       </c>
       <c r="W15" s="6" t="s">
         <v>1</v>
       </c>
       <c r="X15" s="6">
-        <v>0.9632338483318933</v>
+        <v>0.96323384833189329</v>
       </c>
       <c r="Y15" s="6" t="s">
         <v>1</v>
       </c>
       <c r="Z15" s="6">
-        <v>0.9234245794821216</v>
+        <v>0.92342457948212164</v>
       </c>
       <c r="AA15" s="6" t="s">
         <v>1</v>
       </c>
       <c r="AB15" s="6">
-        <v>0.8663248678163805</v>
+        <v>0.86632486781638052</v>
       </c>
       <c r="AC15" s="6" t="s">
         <v>1</v>
@@ -2334,13 +2397,13 @@
         <v>1</v>
       </c>
       <c r="AF15" s="6">
-        <v>0.9906491949313466</v>
+        <v>0.99064919493134662</v>
       </c>
       <c r="AG15" s="6" t="s">
         <v>1</v>
       </c>
       <c r="AH15" s="6">
-        <v>0.9931579674541757</v>
+        <v>0.99315796745417573</v>
       </c>
       <c r="AI15" s="6" t="s">
         <v>1</v>
@@ -2352,7 +2415,7 @@
         <v>1</v>
       </c>
       <c r="AL15" s="6">
-        <v>0.9542360543147331</v>
+        <v>0.95423605431473313</v>
       </c>
       <c r="AM15" s="6" t="s">
         <v>1</v>
@@ -2364,87 +2427,87 @@
         <v>1</v>
       </c>
       <c r="AP15" s="6">
-        <v>0.9327988792776322</v>
+        <v>0.93279887927763216</v>
       </c>
       <c r="AQ15" s="6" t="s">
         <v>1</v>
       </c>
       <c r="AR15" s="6">
-        <v>0.9437214297949706</v>
+        <v>0.94372142979497065</v>
       </c>
       <c r="AS15" s="6" t="s">
         <v>1</v>
       </c>
       <c r="AT15" s="6">
-        <v>0.8857300722602311</v>
+        <v>0.88573007226023115</v>
       </c>
       <c r="AU15" s="6" t="s">
         <v>1</v>
       </c>
       <c r="AV15" s="6">
-        <v>0.8530486277203007</v>
+        <v>0.85304862772030066</v>
       </c>
       <c r="AW15" s="6" t="s">
         <v>1</v>
       </c>
       <c r="AX15" s="6">
-        <v>0.7954176711411906</v>
+        <v>0.79541767114119055</v>
       </c>
       <c r="AY15" s="6" t="s">
         <v>1</v>
       </c>
       <c r="AZ15" s="6">
-        <v>0.9936503542965777</v>
+        <v>0.99365035429657766</v>
       </c>
       <c r="BA15" s="6" t="s">
         <v>1</v>
       </c>
       <c r="BB15" s="6">
-        <v>0.9943944684285846</v>
+        <v>0.99439446842858459</v>
       </c>
       <c r="BC15" s="6" t="s">
         <v>1</v>
       </c>
       <c r="BD15" s="6">
-        <v>0.9758812604990134</v>
+        <v>0.97588126049901336</v>
       </c>
       <c r="BE15" s="6" t="s">
         <v>1</v>
       </c>
       <c r="BF15" s="6">
-        <v>0.9690082609515046</v>
-      </c>
-    </row>
-    <row r="16" ht="14.25" hidden="1" customHeight="1">
+        <v>0.96900826095150461</v>
+      </c>
+    </row>
+    <row r="16" spans="1:60" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B16" s="3">
-        <v>0.004696114296950161</v>
+        <v>4.696114296950161E-3</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D16" s="3">
-        <v>0.005116159931797264</v>
+        <v>5.1161599317972638E-3</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F16" s="3">
-        <v>0.03361041335784594</v>
+        <v>3.3610413357845939E-2</v>
       </c>
       <c r="G16" s="3" t="s">
         <v>2</v>
       </c>
       <c r="H16" s="3">
-        <v>0.03358012747362259</v>
+        <v>3.3580127473622587E-2</v>
       </c>
       <c r="I16" s="3" t="s">
         <v>2</v>
       </c>
       <c r="J16" s="3">
-        <v>1.157137507728789</v>
+        <v>1.1571375077287891</v>
       </c>
       <c r="K16" s="3" t="s">
         <v>2</v>
@@ -2456,49 +2519,49 @@
         <v>2</v>
       </c>
       <c r="N16" s="3">
-        <v>95.9066945674868</v>
+        <v>95.906694567486795</v>
       </c>
       <c r="O16" s="3" t="s">
         <v>2</v>
       </c>
       <c r="P16" s="3">
-        <v>0.006052189588253648</v>
+        <v>6.0521895882536484E-3</v>
       </c>
       <c r="Q16" s="3" t="s">
         <v>2</v>
       </c>
       <c r="R16" s="3">
-        <v>0.006749209131544505</v>
+        <v>6.7492091315445053E-3</v>
       </c>
       <c r="S16" s="3" t="s">
         <v>2</v>
       </c>
       <c r="T16" s="3">
-        <v>0.00567586027516055</v>
+        <v>5.6758602751605502E-3</v>
       </c>
       <c r="U16" s="3" t="s">
         <v>2</v>
       </c>
       <c r="V16" s="3">
-        <v>0.006695744501619198</v>
+        <v>6.6957445016191976E-3</v>
       </c>
       <c r="W16" s="3" t="s">
         <v>2</v>
       </c>
       <c r="X16" s="3">
-        <v>0.03308272217915401</v>
+        <v>3.3082722179154013E-2</v>
       </c>
       <c r="Y16" s="3" t="s">
         <v>2</v>
       </c>
       <c r="Z16" s="3">
-        <v>0.0362068431582681</v>
+        <v>3.6206843158268102E-2</v>
       </c>
       <c r="AA16" s="3" t="s">
         <v>2</v>
       </c>
       <c r="AB16" s="3">
-        <v>0.04327916867761689</v>
+        <v>4.3279168677616893E-2</v>
       </c>
       <c r="AC16" s="3" t="s">
         <v>2</v>
@@ -2516,67 +2579,67 @@
         <v>2</v>
       </c>
       <c r="AH16" s="3">
-        <v>95.89751695642019</v>
+        <v>95.897516956420191</v>
       </c>
       <c r="AI16" s="3" t="s">
         <v>2</v>
       </c>
       <c r="AJ16" s="3">
-        <v>0.01201582398843266</v>
+        <v>1.2015823988432661E-2</v>
       </c>
       <c r="AK16" s="3" t="s">
         <v>2</v>
       </c>
       <c r="AL16" s="3">
-        <v>0.008132558791059194</v>
+        <v>8.1325587910591936E-3</v>
       </c>
       <c r="AM16" s="3" t="s">
         <v>2</v>
       </c>
       <c r="AN16" s="3">
-        <v>0.007605822923298481</v>
+        <v>7.605822923298481E-3</v>
       </c>
       <c r="AO16" s="3" t="s">
         <v>2</v>
       </c>
       <c r="AP16" s="3">
-        <v>0.009710180104576182</v>
+        <v>9.7101801045761816E-3</v>
       </c>
       <c r="AQ16" s="3" t="s">
         <v>2</v>
       </c>
       <c r="AR16" s="3">
-        <v>0.0405776317478558</v>
+        <v>4.0577631747855801E-2</v>
       </c>
       <c r="AS16" s="3" t="s">
         <v>2</v>
       </c>
       <c r="AT16" s="3">
-        <v>0.0384880317628442</v>
+        <v>3.8488031762844203E-2</v>
       </c>
       <c r="AU16" s="3" t="s">
         <v>2</v>
       </c>
       <c r="AV16" s="3">
-        <v>0.06881879644460082</v>
+        <v>6.8818796444600816E-2</v>
       </c>
       <c r="AW16" s="3" t="s">
         <v>2</v>
       </c>
       <c r="AX16" s="3">
-        <v>1.765246855477376</v>
+        <v>1.7652468554773759</v>
       </c>
       <c r="AY16" s="3" t="s">
         <v>2</v>
       </c>
       <c r="AZ16" s="3">
-        <v>92.38418842289627</v>
+        <v>92.384188422896273</v>
       </c>
       <c r="BA16" s="3" t="s">
         <v>2</v>
       </c>
       <c r="BB16" s="3">
-        <v>86.80185691297802</v>
+        <v>86.801856912978025</v>
       </c>
       <c r="BC16" s="3" t="s">
         <v>2</v>
@@ -2588,93 +2651,93 @@
         <v>2</v>
       </c>
       <c r="BF16" s="3">
-        <v>0.16045501189321</v>
-      </c>
-    </row>
-    <row r="17" ht="14.25" hidden="1" customHeight="1">
+        <v>0.16045501189320999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:60" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B17" s="3">
-        <v>0.003542907261716755</v>
+        <v>3.5429072617167551E-3</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D17" s="3">
-        <v>0.003897771958663661</v>
+        <v>3.897771958663661E-3</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F17" s="3">
-        <v>0.02132928083643047</v>
+        <v>2.1329280836430469E-2</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="H17" s="3">
-        <v>0.02347144321557304</v>
+        <v>2.347144321557304E-2</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J17" s="3">
-        <v>0.8782474194586514</v>
+        <v>0.87824741945865137</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L17" s="3">
-        <v>42.79384251406634</v>
+        <v>42.793842514066341</v>
       </c>
       <c r="M17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N17" s="3">
-        <v>42.83638583309087</v>
+        <v>42.836385833090873</v>
       </c>
       <c r="O17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P17" s="3">
-        <v>0.004163199584070226</v>
+        <v>4.1631995840702256E-3</v>
       </c>
       <c r="Q17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R17" s="3">
-        <v>0.004935959982520414</v>
+        <v>4.9359599825204142E-3</v>
       </c>
       <c r="S17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T17" s="3">
-        <v>0.004327162568374145</v>
+        <v>4.3271625683741453E-3</v>
       </c>
       <c r="U17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V17" s="3">
-        <v>0.004351132851619313</v>
+        <v>4.351132851619313E-3</v>
       </c>
       <c r="W17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="X17" s="3">
-        <v>0.02122214995525683</v>
+        <v>2.1222149955256831E-2</v>
       </c>
       <c r="Y17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Z17" s="3">
-        <v>0.02627842073127007</v>
+        <v>2.6278420731270069E-2</v>
       </c>
       <c r="AA17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AB17" s="3">
-        <v>0.03254505082952632</v>
+        <v>3.2545050829526322E-2</v>
       </c>
       <c r="AC17" s="3" t="s">
         <v>3</v>
@@ -2686,61 +2749,61 @@
         <v>3</v>
       </c>
       <c r="AF17" s="3">
-        <v>48.02842725844452</v>
+        <v>48.028427258444523</v>
       </c>
       <c r="AG17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AH17" s="3">
-        <v>35.02424218879868</v>
+        <v>35.024242188798681</v>
       </c>
       <c r="AI17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AJ17" s="3">
-        <v>0.007635238993087715</v>
+        <v>7.6352389930877153E-3</v>
       </c>
       <c r="AK17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AL17" s="3">
-        <v>0.005917103783389707</v>
+        <v>5.9171037833897072E-3</v>
       </c>
       <c r="AM17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AN17" s="3">
-        <v>0.005502826163390111</v>
+        <v>5.5028261633901111E-3</v>
       </c>
       <c r="AO17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AP17" s="3">
-        <v>0.006647283229858498</v>
+        <v>6.647283229858498E-3</v>
       </c>
       <c r="AQ17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AR17" s="3">
-        <v>0.02713023232839337</v>
+        <v>2.7130232328393369E-2</v>
       </c>
       <c r="AS17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AT17" s="3">
-        <v>0.02728359815333714</v>
+        <v>2.7283598153337141E-2</v>
       </c>
       <c r="AU17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AV17" s="3">
-        <v>0.04831580954247933</v>
+        <v>4.8315809542479327E-2</v>
       </c>
       <c r="AW17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AX17" s="3">
-        <v>1.314895945571923</v>
+        <v>1.3148959455719229</v>
       </c>
       <c r="AY17" s="3" t="s">
         <v>3</v>
@@ -2752,13 +2815,13 @@
         <v>3</v>
       </c>
       <c r="BB17" s="3">
-        <v>41.30430702153581</v>
+        <v>41.304307021535813</v>
       </c>
       <c r="BC17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="BD17" s="3">
-        <v>0.09034830568279788</v>
+        <v>9.0348305682797878E-2</v>
       </c>
       <c r="BE17" s="3" t="s">
         <v>3</v>
@@ -2767,23 +2830,23 @@
         <v>0.1148745169610887</v>
       </c>
     </row>
-    <row r="18" ht="14.25" customHeight="1">
+    <row r="18" spans="1:60" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="19" ht="14.25" customHeight="1">
+    <row r="19" spans="1:60" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B19" s="3">
-        <v>0.9271356513051804</v>
+        <v>0.92713565130518039</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D19" s="3">
-        <v>0.9510090387255868</v>
+        <v>0.95100903872558684</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>1</v>
@@ -2795,25 +2858,25 @@
         <v>1</v>
       </c>
       <c r="H19" s="3">
-        <v>0.8592399799656111</v>
+        <v>0.85923997996561108</v>
       </c>
       <c r="I19" s="3" t="s">
         <v>1</v>
       </c>
       <c r="J19" s="3">
-        <v>0.4708707785086443</v>
+        <v>0.47087077850864428</v>
       </c>
       <c r="K19" s="3" t="s">
         <v>1</v>
       </c>
       <c r="L19" s="3">
-        <v>0.9910624183955591</v>
+        <v>0.99106241839555909</v>
       </c>
       <c r="M19" s="3" t="s">
         <v>1</v>
       </c>
       <c r="N19" s="3">
-        <v>0.9947054632460702</v>
+        <v>0.99470546324607023</v>
       </c>
       <c r="O19" s="3" t="s">
         <v>1</v>
@@ -2825,25 +2888,25 @@
         <v>1</v>
       </c>
       <c r="R19" s="3">
-        <v>0.9387477958792005</v>
+        <v>0.93874779587920054</v>
       </c>
       <c r="S19" s="3" t="s">
         <v>1</v>
       </c>
       <c r="T19" s="3">
-        <v>0.9669420180515627</v>
+        <v>0.96694201805156266</v>
       </c>
       <c r="U19" s="3" t="s">
         <v>1</v>
       </c>
       <c r="V19" s="3">
-        <v>0.9405893015315183</v>
+        <v>0.94058930153151832</v>
       </c>
       <c r="W19" s="3" t="s">
         <v>1</v>
       </c>
       <c r="X19" s="3">
-        <v>0.9299214953708264</v>
+        <v>0.92992149537082636</v>
       </c>
       <c r="Y19" s="3" t="s">
         <v>1</v>
@@ -2855,49 +2918,49 @@
         <v>1</v>
       </c>
       <c r="AB19" s="3">
-        <v>0.7179537178843048</v>
+        <v>0.71795371788430484</v>
       </c>
       <c r="AC19" s="3" t="s">
         <v>1</v>
       </c>
       <c r="AD19" s="3">
-        <v>0.6220843243168288</v>
+        <v>0.62208432431682881</v>
       </c>
       <c r="AE19" s="3" t="s">
         <v>1</v>
       </c>
       <c r="AF19" s="3">
-        <v>0.9897597739906263</v>
+        <v>0.98975977399062631</v>
       </c>
       <c r="AG19" s="3" t="s">
         <v>1</v>
       </c>
       <c r="AH19" s="3">
-        <v>0.993038138632383</v>
+        <v>0.99303813863238299</v>
       </c>
       <c r="AI19" s="3" t="s">
         <v>1</v>
       </c>
       <c r="AJ19" s="3">
-        <v>0.8452373922462808</v>
+        <v>0.84523739224628081</v>
       </c>
       <c r="AK19" s="3" t="s">
         <v>1</v>
       </c>
       <c r="AL19" s="3">
-        <v>0.9207903764445212</v>
+        <v>0.92079037644452122</v>
       </c>
       <c r="AM19" s="3" t="s">
         <v>1</v>
       </c>
       <c r="AN19" s="3">
-        <v>0.8229197046243593</v>
+        <v>0.82291970462435926</v>
       </c>
       <c r="AO19" s="3" t="s">
         <v>1</v>
       </c>
       <c r="AP19" s="3">
-        <v>0.8652852382158093</v>
+        <v>0.86528523821580927</v>
       </c>
       <c r="AQ19" s="3" t="s">
         <v>1</v>
@@ -2909,85 +2972,85 @@
         <v>1</v>
       </c>
       <c r="AT19" s="3">
-        <v>0.7724096037303428</v>
+        <v>0.77240960373034284</v>
       </c>
       <c r="AU19" s="3" t="s">
         <v>1</v>
       </c>
       <c r="AV19" s="3">
-        <v>0.7013631072028789</v>
+        <v>0.70136310720287887</v>
       </c>
       <c r="AW19" s="3" t="s">
         <v>1</v>
       </c>
       <c r="AX19" s="3">
-        <v>0.5991750267141217</v>
+        <v>0.59917502671412171</v>
       </c>
       <c r="AY19" s="3" t="s">
         <v>1</v>
       </c>
       <c r="AZ19" s="3">
-        <v>0.9944584236142869</v>
+        <v>0.99445842361428693</v>
       </c>
       <c r="BA19" s="3" t="s">
         <v>1</v>
       </c>
       <c r="BB19" s="3">
-        <v>0.9941734622902709</v>
+        <v>0.99417346229027093</v>
       </c>
       <c r="BC19" s="3" t="s">
         <v>1</v>
       </c>
       <c r="BD19" s="3">
-        <v>0.960463886479599</v>
+        <v>0.96046388647959902</v>
       </c>
       <c r="BE19" s="3" t="s">
         <v>1</v>
       </c>
       <c r="BF19" s="3">
-        <v>0.9344730571769663</v>
+        <v>0.93447305717696627</v>
       </c>
       <c r="BG19" s="3">
         <f>AVERAGE(A19:BF19)</f>
-        <v>0.8729796547</v>
-      </c>
-    </row>
-    <row r="20" ht="14.25" hidden="1" customHeight="1">
+        <v>0.87297965468266758</v>
+      </c>
+    </row>
+    <row r="20" spans="1:60" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B20" s="3">
-        <v>0.006400024309041692</v>
+        <v>6.4000243090416922E-3</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D20" s="3">
-        <v>0.007596706367217918</v>
+        <v>7.5967063672179183E-3</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F20" s="3">
-        <v>0.04734036587004151</v>
+        <v>4.7340365870041513E-2</v>
       </c>
       <c r="G20" s="3" t="s">
         <v>2</v>
       </c>
       <c r="H20" s="3">
-        <v>0.04581399444835069</v>
+        <v>4.5813994448350687E-2</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>2</v>
       </c>
       <c r="J20" s="3">
-        <v>1.437975348633138</v>
+        <v>1.4379753486331379</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>2</v>
       </c>
       <c r="L20" s="3">
-        <v>113.2086603620729</v>
+        <v>113.20866036207291</v>
       </c>
       <c r="M20" s="3" t="s">
         <v>2</v>
@@ -2999,127 +3062,127 @@
         <v>2</v>
       </c>
       <c r="P20" s="3">
-        <v>0.007714329325420628</v>
+        <v>7.7143293254206277E-3</v>
       </c>
       <c r="Q20" s="3" t="s">
         <v>2</v>
       </c>
       <c r="R20" s="3">
-        <v>0.01004786555260328</v>
+        <v>1.004786555260328E-2</v>
       </c>
       <c r="S20" s="3" t="s">
         <v>2</v>
       </c>
       <c r="T20" s="3">
-        <v>0.00722726646823561</v>
+        <v>7.2272664682356104E-3</v>
       </c>
       <c r="U20" s="3" t="s">
         <v>2</v>
       </c>
       <c r="V20" s="3">
-        <v>0.008839544207366767</v>
+        <v>8.8395442073667674E-3</v>
       </c>
       <c r="W20" s="3" t="s">
         <v>2</v>
       </c>
       <c r="X20" s="3">
-        <v>0.04414463657382669</v>
+        <v>4.4144636573826689E-2</v>
       </c>
       <c r="Y20" s="3" t="s">
         <v>2</v>
       </c>
       <c r="Z20" s="3">
-        <v>0.04981125281615005</v>
+        <v>4.9811252816150051E-2</v>
       </c>
       <c r="AA20" s="3" t="s">
         <v>2</v>
       </c>
       <c r="AB20" s="3">
-        <v>0.06164801040203133</v>
+        <v>6.1648010402031328E-2</v>
       </c>
       <c r="AC20" s="3" t="s">
         <v>2</v>
       </c>
       <c r="AD20" s="3">
-        <v>1.819840069792879</v>
+        <v>1.8198400697928789</v>
       </c>
       <c r="AE20" s="3" t="s">
         <v>2</v>
       </c>
       <c r="AF20" s="3">
-        <v>121.1779751333896</v>
+        <v>121.17797513338959</v>
       </c>
       <c r="AG20" s="3" t="s">
         <v>2</v>
       </c>
       <c r="AH20" s="3">
-        <v>99.91459577788186</v>
+        <v>99.914595777881857</v>
       </c>
       <c r="AI20" s="3" t="s">
         <v>2</v>
       </c>
       <c r="AJ20" s="3">
-        <v>0.0166644704815094</v>
+        <v>1.6664470481509399E-2</v>
       </c>
       <c r="AK20" s="3" t="s">
         <v>2</v>
       </c>
       <c r="AL20" s="3">
-        <v>0.01064331393308903</v>
+        <v>1.0643313933089029E-2</v>
       </c>
       <c r="AM20" s="3" t="s">
         <v>2</v>
       </c>
       <c r="AN20" s="3">
-        <v>0.01029867362888503</v>
+        <v>1.029867362888503E-2</v>
       </c>
       <c r="AO20" s="3" t="s">
         <v>2</v>
       </c>
       <c r="AP20" s="3">
-        <v>0.01362600277577267</v>
+        <v>1.362600277577267E-2</v>
       </c>
       <c r="AQ20" s="3" t="s">
         <v>2</v>
       </c>
       <c r="AR20" s="3">
-        <v>0.05747766053799061</v>
+        <v>5.747766053799061E-2</v>
       </c>
       <c r="AS20" s="3" t="s">
         <v>2</v>
       </c>
       <c r="AT20" s="3">
-        <v>0.05265377088734604</v>
+        <v>5.2653770887346039E-2</v>
       </c>
       <c r="AU20" s="3" t="s">
         <v>2</v>
       </c>
       <c r="AV20" s="3">
-        <v>0.09855502997955196</v>
+        <v>9.8555029979551956E-2</v>
       </c>
       <c r="AW20" s="3" t="s">
         <v>2</v>
       </c>
       <c r="AX20" s="3">
-        <v>2.389634446945316</v>
+        <v>2.3896344469453159</v>
       </c>
       <c r="AY20" s="3" t="s">
         <v>2</v>
       </c>
       <c r="AZ20" s="3">
-        <v>89.14370754605969</v>
+        <v>89.143707546059687</v>
       </c>
       <c r="BA20" s="3" t="s">
         <v>2</v>
       </c>
       <c r="BB20" s="3">
-        <v>91.40642606348226</v>
+        <v>91.406426063482257</v>
       </c>
       <c r="BC20" s="3" t="s">
         <v>2</v>
       </c>
       <c r="BD20" s="3">
-        <v>0.1545517745604046</v>
+        <v>0.15455177456040459</v>
       </c>
       <c r="BE20" s="3" t="s">
         <v>2</v>
@@ -3128,42 +3191,42 @@
         <v>0.2309416850716294</v>
       </c>
     </row>
-    <row r="21" ht="14.25" hidden="1" customHeight="1">
+    <row r="21" spans="1:60" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B21" s="3">
-        <v>0.00476370012249706</v>
+        <v>4.7637001224970603E-3</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D21" s="3">
-        <v>0.005512768752468838</v>
+        <v>5.5127687524688376E-3</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F21" s="3">
-        <v>0.02781977310667752</v>
+        <v>2.781977310667752E-2</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="H21" s="3">
-        <v>0.03118513939630697</v>
+        <v>3.118513939630697E-2</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J21" s="3">
-        <v>1.095893513947278</v>
+        <v>1.0958935139472781</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L21" s="3">
-        <v>45.79857266109899</v>
+        <v>45.798572661098987</v>
       </c>
       <c r="M21" s="3" t="s">
         <v>3</v>
@@ -3175,43 +3238,43 @@
         <v>3</v>
       </c>
       <c r="P21" s="3">
-        <v>0.005173704826918856</v>
+        <v>5.1737048269188558E-3</v>
       </c>
       <c r="Q21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R21" s="3">
-        <v>0.006687276317127976</v>
+        <v>6.6872763171279756E-3</v>
       </c>
       <c r="S21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T21" s="3">
-        <v>0.005521423896727192</v>
+        <v>5.5214238967271918E-3</v>
       </c>
       <c r="U21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V21" s="3">
-        <v>0.005526005815463016</v>
+        <v>5.5260058154630162E-3</v>
       </c>
       <c r="W21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="X21" s="3">
-        <v>0.02698196036659554</v>
+        <v>2.6981960366595541E-2</v>
       </c>
       <c r="Y21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Z21" s="3">
-        <v>0.03411308905635139</v>
+        <v>3.4113089056351388E-2</v>
       </c>
       <c r="AA21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AB21" s="3">
-        <v>0.04454050697364786</v>
+        <v>4.4540506973647857E-2</v>
       </c>
       <c r="AC21" s="3" t="s">
         <v>3</v>
@@ -3223,73 +3286,73 @@
         <v>3</v>
       </c>
       <c r="AF21" s="3">
-        <v>51.5930874768861</v>
+        <v>51.593087476886097</v>
       </c>
       <c r="AG21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AH21" s="3">
-        <v>38.33525991332586</v>
+        <v>38.335259913325856</v>
       </c>
       <c r="AI21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AJ21" s="3">
-        <v>0.0103609101277143</v>
+        <v>1.03609101277143E-2</v>
       </c>
       <c r="AK21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AL21" s="3">
-        <v>0.007758861196348208</v>
+        <v>7.7588611963482082E-3</v>
       </c>
       <c r="AM21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AN21" s="3">
-        <v>0.007185464130005637</v>
+        <v>7.1854641300056372E-3</v>
       </c>
       <c r="AO21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AP21" s="3">
-        <v>0.009132181209372075</v>
+        <v>9.1321812093720749E-3</v>
       </c>
       <c r="AQ21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AR21" s="3">
-        <v>0.035136334878008</v>
+        <v>3.5136334878007998E-2</v>
       </c>
       <c r="AS21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AT21" s="3">
-        <v>0.03642554236315462</v>
+        <v>3.6425542363154623E-2</v>
       </c>
       <c r="AU21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AV21" s="3">
-        <v>0.06612383348570026</v>
+        <v>6.6123833485700265E-2</v>
       </c>
       <c r="AW21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AX21" s="3">
-        <v>1.726033830451514</v>
+        <v>1.7260338304515139</v>
       </c>
       <c r="AY21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AZ21" s="3">
-        <v>43.69602055942622</v>
+        <v>43.696020559426223</v>
       </c>
       <c r="BA21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="BB21" s="3">
-        <v>42.50670351225811</v>
+        <v>42.506703512258113</v>
       </c>
       <c r="BC21" s="3" t="s">
         <v>3</v>
@@ -3301,222 +3364,222 @@
         <v>3</v>
       </c>
       <c r="BF21" s="3">
-        <v>0.1578533343583969</v>
-      </c>
-    </row>
-    <row r="22" ht="14.25" customHeight="1">
+        <v>0.15785333435839691</v>
+      </c>
+    </row>
+    <row r="22" spans="1:60" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="23" ht="14.25" customHeight="1">
-      <c r="A23" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B23" s="7">
-        <v>0.9202247047061842</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D23" s="7">
-        <v>0.9519638214345427</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="F23" s="7">
-        <v>0.9391166633959289</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="H23" s="7">
-        <v>0.8594561695195184</v>
-      </c>
-      <c r="I23" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="J23" s="7">
-        <v>0.5047125072830769</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="L23" s="7">
-        <v>0.9933730564092074</v>
-      </c>
-      <c r="M23" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="N23" s="7">
-        <v>0.9946824294284354</v>
-      </c>
-      <c r="O23" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="P23" s="7">
-        <v>0.9590423320242802</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="R23" s="7">
-        <v>0.9438758423291534</v>
-      </c>
-      <c r="S23" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="T23" s="7">
-        <v>0.9642633995779755</v>
-      </c>
-      <c r="U23" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="V23" s="7">
+    <row r="23" spans="1:60" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23" s="11">
+        <v>0.92022470470618423</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D23" s="11">
+        <v>0.95196382143454272</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="F23" s="11">
+        <v>0.93911666339592892</v>
+      </c>
+      <c r="G23" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="H23" s="11">
+        <v>0.85945616951951842</v>
+      </c>
+      <c r="I23" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="J23" s="11">
+        <v>0.50471250728307693</v>
+      </c>
+      <c r="K23" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="L23" s="11">
+        <v>0.99337305640920737</v>
+      </c>
+      <c r="M23" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="N23" s="11">
+        <v>0.99468242942843543</v>
+      </c>
+      <c r="O23" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="P23" s="11">
+        <v>0.95904233202428024</v>
+      </c>
+      <c r="Q23" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="R23" s="11">
+        <v>0.94387584232915345</v>
+      </c>
+      <c r="S23" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="T23" s="11">
+        <v>0.96426339957797547</v>
+      </c>
+      <c r="U23" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="V23" s="11">
         <v>0.93212074238428</v>
       </c>
-      <c r="W23" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="X23" s="7">
-        <v>0.9354160764489323</v>
-      </c>
-      <c r="Y23" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="Z23" s="7">
-        <v>0.849995858516679</v>
-      </c>
-      <c r="AA23" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="AB23" s="7">
-        <v>0.6809943597141014</v>
-      </c>
-      <c r="AC23" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD23" s="7">
-        <v>0.5923169972853028</v>
-      </c>
-      <c r="AE23" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF23" s="7">
-        <v>0.9927242171207653</v>
-      </c>
-      <c r="AG23" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="AH23" s="7">
-        <v>0.9939650285681161</v>
-      </c>
-      <c r="AI23" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="AJ23" s="7">
-        <v>0.849055331914046</v>
-      </c>
-      <c r="AK23" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="AL23" s="7">
-        <v>0.9164479315192315</v>
-      </c>
-      <c r="AM23" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="AN23" s="7">
-        <v>0.824210307061268</v>
-      </c>
-      <c r="AO23" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="AP23" s="7">
-        <v>0.8663624533850021</v>
-      </c>
-      <c r="AQ23" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="AR23" s="7">
-        <v>0.898680742282536</v>
-      </c>
-      <c r="AS23" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="AT23" s="7">
-        <v>0.7756045901246404</v>
-      </c>
-      <c r="AU23" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="AV23" s="7">
-        <v>0.7021583584024995</v>
-      </c>
-      <c r="AW23" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="AX23" s="7">
-        <v>0.6128968121557913</v>
-      </c>
-      <c r="AY23" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="AZ23" s="7">
-        <v>0.9942446587041238</v>
-      </c>
-      <c r="BA23" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="BB23" s="7">
-        <v>0.9947294738555663</v>
-      </c>
-      <c r="BC23" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="BD23" s="7">
-        <v>0.9543542393476167</v>
-      </c>
-      <c r="BE23" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="BF23" s="7">
+      <c r="W23" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="X23" s="11">
+        <v>0.93541607644893232</v>
+      </c>
+      <c r="Y23" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z23" s="11">
+        <v>0.84999585851667903</v>
+      </c>
+      <c r="AA23" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB23" s="11">
+        <v>0.68099435971410138</v>
+      </c>
+      <c r="AC23" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD23" s="11">
+        <v>0.59231699728530285</v>
+      </c>
+      <c r="AE23" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF23" s="11">
+        <v>0.99272421712076531</v>
+      </c>
+      <c r="AG23" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH23" s="11">
+        <v>0.99396502856811608</v>
+      </c>
+      <c r="AI23" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ23" s="11">
+        <v>0.84905533191404603</v>
+      </c>
+      <c r="AK23" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL23" s="11">
+        <v>0.91644793151923154</v>
+      </c>
+      <c r="AM23" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN23" s="11">
+        <v>0.82421030706126797</v>
+      </c>
+      <c r="AO23" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP23" s="11">
+        <v>0.86636245338500206</v>
+      </c>
+      <c r="AQ23" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR23" s="11">
+        <v>0.89868074228253603</v>
+      </c>
+      <c r="AS23" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT23" s="11">
+        <v>0.77560459012464045</v>
+      </c>
+      <c r="AU23" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AV23" s="11">
+        <v>0.70215835840249952</v>
+      </c>
+      <c r="AW23" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AX23" s="11">
+        <v>0.61289681215579128</v>
+      </c>
+      <c r="AY23" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AZ23" s="11">
+        <v>0.99424465870412382</v>
+      </c>
+      <c r="BA23" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="BB23" s="11">
+        <v>0.99472947385556632</v>
+      </c>
+      <c r="BC23" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="BD23" s="11">
+        <v>0.95435423934761665</v>
+      </c>
+      <c r="BE23" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="BF23" s="11">
         <v>0.9341894072089143</v>
       </c>
-      <c r="BG23" s="7"/>
-      <c r="BH23" s="7"/>
-    </row>
-    <row r="24" ht="14.25" hidden="1" customHeight="1">
+      <c r="BG23" s="11"/>
+      <c r="BH23" s="11"/>
+    </row>
+    <row r="24" spans="1:60" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B24" s="3">
-        <v>0.006591113124809722</v>
+        <v>6.5911131248097216E-3</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D24" s="3">
-        <v>0.007552072339045389</v>
+        <v>7.5520723390453889E-3</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F24" s="3">
-        <v>0.04666049144127105</v>
+        <v>4.6660491441271053E-2</v>
       </c>
       <c r="G24" s="3" t="s">
         <v>2</v>
       </c>
       <c r="H24" s="3">
-        <v>0.04614258575813426</v>
+        <v>4.6142585758134257E-2</v>
       </c>
       <c r="I24" s="3" t="s">
         <v>2</v>
       </c>
       <c r="J24" s="3">
-        <v>1.414931273426351</v>
+        <v>1.4149312734263511</v>
       </c>
       <c r="K24" s="3" t="s">
         <v>2</v>
@@ -3528,127 +3591,127 @@
         <v>2</v>
       </c>
       <c r="N24" s="3">
-        <v>82.29724349919678</v>
+        <v>82.297243499196782</v>
       </c>
       <c r="O24" s="3" t="s">
         <v>2</v>
       </c>
       <c r="P24" s="3">
-        <v>0.007854018623594203</v>
+        <v>7.8540186235942031E-3</v>
       </c>
       <c r="Q24" s="3" t="s">
         <v>2</v>
       </c>
       <c r="R24" s="3">
-        <v>0.009547549078103212</v>
+        <v>9.5475490781032121E-3</v>
       </c>
       <c r="S24" s="3" t="s">
         <v>2</v>
       </c>
       <c r="T24" s="3">
-        <v>0.007494830490021357</v>
+        <v>7.4948304900213569E-3</v>
       </c>
       <c r="U24" s="3" t="s">
         <v>2</v>
       </c>
       <c r="V24" s="3">
-        <v>0.009333949929418101</v>
+        <v>9.3339499294181009E-3</v>
       </c>
       <c r="W24" s="3" t="s">
         <v>2</v>
       </c>
       <c r="X24" s="3">
-        <v>0.04527696947685343</v>
+        <v>4.5276969476853432E-2</v>
       </c>
       <c r="Y24" s="3" t="s">
         <v>2</v>
       </c>
       <c r="Z24" s="3">
-        <v>0.05070949343943375</v>
+        <v>5.0709493439433748E-2</v>
       </c>
       <c r="AA24" s="3" t="s">
         <v>2</v>
       </c>
       <c r="AB24" s="3">
-        <v>0.0673666760104613</v>
+        <v>6.7366676010461299E-2</v>
       </c>
       <c r="AC24" s="3" t="s">
         <v>2</v>
       </c>
       <c r="AD24" s="3">
-        <v>1.944537021725934</v>
+        <v>1.9445370217259339</v>
       </c>
       <c r="AE24" s="3" t="s">
         <v>2</v>
       </c>
       <c r="AF24" s="3">
-        <v>96.2654709604515</v>
+        <v>96.265470960451495</v>
       </c>
       <c r="AG24" s="3" t="s">
         <v>2</v>
       </c>
       <c r="AH24" s="3">
-        <v>87.67288846525018</v>
+        <v>87.672888465250182</v>
       </c>
       <c r="AI24" s="3" t="s">
         <v>2</v>
       </c>
       <c r="AJ24" s="3">
-        <v>0.01704669128238538</v>
+        <v>1.7046691282385382E-2</v>
       </c>
       <c r="AK24" s="3" t="s">
         <v>2</v>
       </c>
       <c r="AL24" s="3">
-        <v>0.01090192091748446</v>
+        <v>1.0901920917484461E-2</v>
       </c>
       <c r="AM24" s="3" t="s">
         <v>2</v>
       </c>
       <c r="AN24" s="3">
-        <v>0.01022696733892661</v>
+        <v>1.0226967338926611E-2</v>
       </c>
       <c r="AO24" s="3" t="s">
         <v>2</v>
       </c>
       <c r="AP24" s="3">
-        <v>0.01383785582589406</v>
+        <v>1.3837855825894059E-2</v>
       </c>
       <c r="AQ24" s="3" t="s">
         <v>2</v>
       </c>
       <c r="AR24" s="3">
-        <v>0.05583876639383012</v>
+        <v>5.5838766393830119E-2</v>
       </c>
       <c r="AS24" s="3" t="s">
         <v>2</v>
       </c>
       <c r="AT24" s="3">
-        <v>0.05320500192554373</v>
+        <v>5.3205001925543727E-2</v>
       </c>
       <c r="AU24" s="3" t="s">
         <v>2</v>
       </c>
       <c r="AV24" s="3">
-        <v>0.09933602215096275</v>
+        <v>9.9336022150962752E-2</v>
       </c>
       <c r="AW24" s="3" t="s">
         <v>2</v>
       </c>
       <c r="AX24" s="3">
-        <v>2.528989681521507</v>
+        <v>2.5289896815215069</v>
       </c>
       <c r="AY24" s="3" t="s">
         <v>2</v>
       </c>
       <c r="AZ24" s="3">
-        <v>85.61945179577135</v>
+        <v>85.619451795771354</v>
       </c>
       <c r="BA24" s="3" t="s">
         <v>2</v>
       </c>
       <c r="BB24" s="3">
-        <v>81.93340834480182</v>
+        <v>81.933408344801819</v>
       </c>
       <c r="BC24" s="3" t="s">
         <v>2</v>
@@ -3660,45 +3723,45 @@
         <v>2</v>
       </c>
       <c r="BF24" s="3">
-        <v>0.2371658645657254</v>
-      </c>
-    </row>
-    <row r="25" ht="14.25" hidden="1" customHeight="1">
+        <v>0.23716586456572539</v>
+      </c>
+    </row>
+    <row r="25" spans="1:60" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B25" s="3">
-        <v>0.004830046680362097</v>
+        <v>4.8300466803620967E-3</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D25" s="3">
-        <v>0.00547034536081354</v>
+        <v>5.4703453608135402E-3</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F25" s="3">
-        <v>0.02770696357946659</v>
+        <v>2.770696357946659E-2</v>
       </c>
       <c r="G25" s="3" t="s">
         <v>3</v>
       </c>
       <c r="H25" s="3">
-        <v>0.03110477420651113</v>
+        <v>3.1104774206511129E-2</v>
       </c>
       <c r="I25" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J25" s="3">
-        <v>1.067528746642778</v>
+        <v>1.0675287466427781</v>
       </c>
       <c r="K25" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L25" s="3">
-        <v>43.17390329349371</v>
+        <v>43.173903293493709</v>
       </c>
       <c r="M25" s="3" t="s">
         <v>3</v>
@@ -3710,103 +3773,103 @@
         <v>3</v>
       </c>
       <c r="P25" s="3">
-        <v>0.00521432776006127</v>
+        <v>5.2143277600612704E-3</v>
       </c>
       <c r="Q25" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R25" s="3">
-        <v>0.006649871830475084</v>
+        <v>6.6498718304750836E-3</v>
       </c>
       <c r="S25" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T25" s="3">
-        <v>0.005562221981885843</v>
+        <v>5.5622219818858426E-3</v>
       </c>
       <c r="U25" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V25" s="3">
-        <v>0.005714322547373561</v>
+        <v>5.7143225473735614E-3</v>
       </c>
       <c r="W25" s="3" t="s">
         <v>3</v>
       </c>
       <c r="X25" s="3">
-        <v>0.02800501715572626</v>
+        <v>2.8005017155726258E-2</v>
       </c>
       <c r="Y25" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Z25" s="3">
-        <v>0.03460626300118855</v>
+        <v>3.4606263001188547E-2</v>
       </c>
       <c r="AA25" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AB25" s="3">
-        <v>0.04541052519988954</v>
+        <v>4.5410525199889543E-2</v>
       </c>
       <c r="AC25" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AD25" s="3">
-        <v>1.450022908570265</v>
+        <v>1.4500229085702649</v>
       </c>
       <c r="AE25" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AF25" s="3">
-        <v>48.29047798824252</v>
+        <v>48.290477988242522</v>
       </c>
       <c r="AG25" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AH25" s="3">
-        <v>36.66981940558591</v>
+        <v>36.669819405585912</v>
       </c>
       <c r="AI25" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AJ25" s="3">
-        <v>0.01029186864785505</v>
+        <v>1.029186864785505E-2</v>
       </c>
       <c r="AK25" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AL25" s="3">
-        <v>0.007839715173335347</v>
+        <v>7.8397151733353466E-3</v>
       </c>
       <c r="AM25" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AN25" s="3">
-        <v>0.007248013220214774</v>
+        <v>7.2480132202147737E-3</v>
       </c>
       <c r="AO25" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AP25" s="3">
-        <v>0.009039984274127891</v>
+        <v>9.0399842741278914E-3</v>
       </c>
       <c r="AQ25" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AR25" s="3">
-        <v>0.03574789139120265</v>
+        <v>3.5747891391202651E-2</v>
       </c>
       <c r="AS25" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AT25" s="3">
-        <v>0.03625687429073163</v>
+        <v>3.6256874290731628E-2</v>
       </c>
       <c r="AU25" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AV25" s="3">
-        <v>0.06600176479341972</v>
+        <v>6.6001764793419723E-2</v>
       </c>
       <c r="AW25" s="3" t="s">
         <v>3</v>
@@ -3818,13 +3881,13 @@
         <v>3</v>
       </c>
       <c r="AZ25" s="3">
-        <v>42.88814315832939</v>
+        <v>42.888143158329392</v>
       </c>
       <c r="BA25" s="3" t="s">
         <v>3</v>
       </c>
       <c r="BB25" s="3">
-        <v>42.80140581847053</v>
+        <v>42.801405818470528</v>
       </c>
       <c r="BC25" s="3" t="s">
         <v>3</v>
@@ -3836,16 +3899,16 @@
         <v>3</v>
       </c>
       <c r="BF25" s="3">
-        <v>0.1609135482825897</v>
-      </c>
-    </row>
-    <row r="26" ht="14.25" customHeight="1"/>
-    <row r="27" ht="14.25" customHeight="1">
+        <v>0.16091354828258969</v>
+      </c>
+    </row>
+    <row r="26" spans="1:60" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="27" spans="1:60" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="28" ht="14.25" customHeight="1">
+    <row r="28" spans="1:60" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
         <v>9</v>
       </c>
@@ -3853,19 +3916,19 @@
         <v>1</v>
       </c>
       <c r="J28" s="3">
-        <v>0.643176278507181</v>
+        <v>0.64317627850718095</v>
       </c>
       <c r="AA28" s="3" t="s">
         <v>1</v>
       </c>
       <c r="AB28" s="3">
-        <v>0.870040598240132</v>
+        <v>0.87004059824013202</v>
       </c>
       <c r="AC28" s="3" t="s">
         <v>1</v>
       </c>
       <c r="AD28" s="3">
-        <v>0.770242907839628</v>
+        <v>0.77024290783962801</v>
       </c>
       <c r="AS28" s="3" t="s">
         <v>1</v>
@@ -3877,57 +3940,57 @@
         <v>1</v>
       </c>
       <c r="AV28" s="3">
-        <v>0.835157908960763</v>
+        <v>0.83515790896076303</v>
       </c>
       <c r="AW28" s="3" t="s">
         <v>1</v>
       </c>
       <c r="AX28" s="3">
-        <v>0.741662482696877</v>
-      </c>
-    </row>
-    <row r="29" ht="14.25" customHeight="1">
+        <v>0.74166248269687696</v>
+      </c>
+    </row>
+    <row r="29" spans="1:60" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
         <v>10</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="J29" s="8">
-        <v>0.737556783087138</v>
+      <c r="J29" s="7">
+        <v>0.73755678308713801</v>
       </c>
       <c r="AA29" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="AB29" s="9">
+      <c r="AB29" s="8">
         <v>0.949960043336047</v>
       </c>
       <c r="AC29" s="3" t="s">
         <v>1</v>
       </c>
       <c r="AD29" s="3">
-        <v>0.782610671134905</v>
+        <v>0.78261067113490501</v>
       </c>
       <c r="AS29" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="AT29" s="8">
-        <v>0.946432078632044</v>
+      <c r="AT29" s="7">
+        <v>0.94643207863204404</v>
       </c>
       <c r="AU29" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="AV29" s="8">
-        <v>0.915145953511125</v>
+      <c r="AV29" s="7">
+        <v>0.91514595351112504</v>
       </c>
       <c r="AW29" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="AX29" s="8">
-        <v>0.801684310646561</v>
-      </c>
-    </row>
-    <row r="30" ht="14.25" customHeight="1">
+      <c r="AX29" s="7">
+        <v>0.80168431064656098</v>
+      </c>
+    </row>
+    <row r="30" spans="1:60" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
         <v>11</v>
       </c>
@@ -3935,1021 +3998,1021 @@
         <v>1</v>
       </c>
       <c r="J30" s="3">
-        <v>0.559740630865151</v>
+        <v>0.55974063086515102</v>
       </c>
       <c r="AA30" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="AB30" s="8">
-        <v>0.956841963801191</v>
+      <c r="AB30" s="7">
+        <v>0.95684196380119102</v>
       </c>
       <c r="AC30" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="AD30" s="8">
-        <v>0.807703541829505</v>
+      <c r="AD30" s="7">
+        <v>0.80770354182950499</v>
       </c>
       <c r="AS30" s="3" t="s">
         <v>1</v>
       </c>
       <c r="AT30" s="3">
-        <v>0.896279013530558</v>
+        <v>0.89627901353055806</v>
       </c>
       <c r="AU30" s="3" t="s">
         <v>1</v>
       </c>
       <c r="AV30" s="3">
-        <v>0.825564657416212</v>
+        <v>0.82556465741621199</v>
       </c>
       <c r="AW30" s="3" t="s">
         <v>1</v>
       </c>
       <c r="AX30" s="3">
-        <v>0.800183689697851</v>
-      </c>
-    </row>
-    <row r="31" ht="14.25" customHeight="1"/>
-    <row r="32" ht="14.25" customHeight="1"/>
-    <row r="33" ht="14.25" customHeight="1"/>
-    <row r="34" ht="14.25" customHeight="1"/>
-    <row r="35" ht="14.25" customHeight="1"/>
-    <row r="36" ht="14.25" customHeight="1">
+        <v>0.80018368969785103</v>
+      </c>
+    </row>
+    <row r="31" spans="1:60" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="32" spans="1:60" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="33" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="34" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="35" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="36" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B36" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="37" ht="14.25" customHeight="1">
+    <row r="37" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B37" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="38" ht="14.25" customHeight="1">
+    <row r="38" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B38" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="39" ht="14.25" customHeight="1"/>
-    <row r="40" ht="14.25" customHeight="1"/>
-    <row r="41" ht="14.25" customHeight="1"/>
-    <row r="42" ht="14.25" customHeight="1"/>
-    <row r="43" ht="14.25" customHeight="1"/>
-    <row r="44" ht="14.25" customHeight="1"/>
-    <row r="45" ht="14.25" customHeight="1"/>
-    <row r="46" ht="14.25" customHeight="1"/>
-    <row r="47" ht="14.25" customHeight="1"/>
-    <row r="48" ht="14.25" customHeight="1"/>
-    <row r="49" ht="14.25" customHeight="1"/>
-    <row r="50" ht="14.25" customHeight="1"/>
-    <row r="51" ht="14.25" customHeight="1"/>
-    <row r="52" ht="14.25" customHeight="1"/>
-    <row r="53" ht="14.25" customHeight="1"/>
-    <row r="54" ht="14.25" customHeight="1"/>
-    <row r="55" ht="14.25" customHeight="1"/>
-    <row r="56" ht="14.25" customHeight="1"/>
-    <row r="57" ht="14.25" customHeight="1"/>
-    <row r="58" ht="14.25" customHeight="1"/>
-    <row r="59" ht="14.25" customHeight="1"/>
-    <row r="60" ht="14.25" customHeight="1"/>
-    <row r="61" ht="14.25" customHeight="1"/>
-    <row r="62" ht="14.25" customHeight="1"/>
-    <row r="63" ht="14.25" customHeight="1"/>
-    <row r="64" ht="14.25" customHeight="1"/>
-    <row r="65" ht="14.25" customHeight="1"/>
-    <row r="66" ht="14.25" customHeight="1"/>
-    <row r="67" ht="14.25" customHeight="1"/>
-    <row r="68" ht="14.25" customHeight="1"/>
-    <row r="69" ht="14.25" customHeight="1"/>
-    <row r="70" ht="14.25" customHeight="1"/>
-    <row r="71" ht="14.25" customHeight="1"/>
-    <row r="72" ht="14.25" customHeight="1"/>
-    <row r="73" ht="14.25" customHeight="1"/>
-    <row r="74" ht="14.25" customHeight="1"/>
-    <row r="75" ht="14.25" customHeight="1"/>
-    <row r="76" ht="14.25" customHeight="1"/>
-    <row r="77" ht="14.25" customHeight="1"/>
-    <row r="78" ht="14.25" customHeight="1"/>
-    <row r="79" ht="14.25" customHeight="1"/>
-    <row r="80" ht="14.25" customHeight="1"/>
-    <row r="81" ht="14.25" customHeight="1"/>
-    <row r="82" ht="14.25" customHeight="1"/>
-    <row r="83" ht="14.25" customHeight="1"/>
-    <row r="84" ht="14.25" customHeight="1"/>
-    <row r="85" ht="14.25" customHeight="1"/>
-    <row r="86" ht="14.25" customHeight="1"/>
-    <row r="87" ht="14.25" customHeight="1"/>
-    <row r="88" ht="14.25" customHeight="1"/>
-    <row r="89" ht="14.25" customHeight="1"/>
-    <row r="90" ht="14.25" customHeight="1"/>
-    <row r="91" ht="14.25" customHeight="1"/>
-    <row r="92" ht="14.25" customHeight="1"/>
-    <row r="93" ht="14.25" customHeight="1"/>
-    <row r="94" ht="14.25" customHeight="1"/>
-    <row r="95" ht="14.25" customHeight="1"/>
-    <row r="96" ht="14.25" customHeight="1"/>
-    <row r="97" ht="14.25" customHeight="1"/>
-    <row r="98" ht="14.25" customHeight="1"/>
-    <row r="99" ht="14.25" customHeight="1"/>
-    <row r="100" ht="14.25" customHeight="1"/>
-    <row r="101" ht="14.25" customHeight="1"/>
-    <row r="102" ht="14.25" customHeight="1"/>
-    <row r="103" ht="14.25" customHeight="1"/>
-    <row r="104" ht="14.25" customHeight="1"/>
-    <row r="105" ht="14.25" customHeight="1"/>
-    <row r="106" ht="14.25" customHeight="1"/>
-    <row r="107" ht="14.25" customHeight="1"/>
-    <row r="108" ht="14.25" customHeight="1"/>
-    <row r="109" ht="14.25" customHeight="1"/>
-    <row r="110" ht="14.25" customHeight="1"/>
-    <row r="111" ht="14.25" customHeight="1"/>
-    <row r="112" ht="14.25" customHeight="1"/>
-    <row r="113" ht="14.25" customHeight="1"/>
-    <row r="114" ht="14.25" customHeight="1"/>
-    <row r="115" ht="14.25" customHeight="1"/>
-    <row r="116" ht="14.25" customHeight="1"/>
-    <row r="117" ht="14.25" customHeight="1"/>
-    <row r="118" ht="14.25" customHeight="1"/>
-    <row r="119" ht="14.25" customHeight="1"/>
-    <row r="120" ht="14.25" customHeight="1"/>
-    <row r="121" ht="14.25" customHeight="1"/>
-    <row r="122" ht="14.25" customHeight="1"/>
-    <row r="123" ht="14.25" customHeight="1"/>
-    <row r="124" ht="14.25" customHeight="1"/>
-    <row r="125" ht="14.25" customHeight="1"/>
-    <row r="126" ht="14.25" customHeight="1"/>
-    <row r="127" ht="14.25" customHeight="1"/>
-    <row r="128" ht="14.25" customHeight="1"/>
-    <row r="129" ht="14.25" customHeight="1"/>
-    <row r="130" ht="14.25" customHeight="1"/>
-    <row r="131" ht="14.25" customHeight="1"/>
-    <row r="132" ht="14.25" customHeight="1"/>
-    <row r="133" ht="14.25" customHeight="1"/>
-    <row r="134" ht="14.25" customHeight="1"/>
-    <row r="135" ht="14.25" customHeight="1"/>
-    <row r="136" ht="14.25" customHeight="1"/>
-    <row r="137" ht="14.25" customHeight="1"/>
-    <row r="138" ht="14.25" customHeight="1"/>
-    <row r="139" ht="14.25" customHeight="1"/>
-    <row r="140" ht="14.25" customHeight="1"/>
-    <row r="141" ht="14.25" customHeight="1"/>
-    <row r="142" ht="14.25" customHeight="1"/>
-    <row r="143" ht="14.25" customHeight="1"/>
-    <row r="144" ht="14.25" customHeight="1"/>
-    <row r="145" ht="14.25" customHeight="1"/>
-    <row r="146" ht="14.25" customHeight="1"/>
-    <row r="147" ht="14.25" customHeight="1"/>
-    <row r="148" ht="14.25" customHeight="1"/>
-    <row r="149" ht="14.25" customHeight="1"/>
-    <row r="150" ht="14.25" customHeight="1"/>
-    <row r="151" ht="14.25" customHeight="1"/>
-    <row r="152" ht="14.25" customHeight="1"/>
-    <row r="153" ht="14.25" customHeight="1"/>
-    <row r="154" ht="14.25" customHeight="1"/>
-    <row r="155" ht="14.25" customHeight="1"/>
-    <row r="156" ht="14.25" customHeight="1"/>
-    <row r="157" ht="14.25" customHeight="1"/>
-    <row r="158" ht="14.25" customHeight="1"/>
-    <row r="159" ht="14.25" customHeight="1"/>
-    <row r="160" ht="14.25" customHeight="1"/>
-    <row r="161" ht="14.25" customHeight="1"/>
-    <row r="162" ht="14.25" customHeight="1"/>
-    <row r="163" ht="14.25" customHeight="1"/>
-    <row r="164" ht="14.25" customHeight="1"/>
-    <row r="165" ht="14.25" customHeight="1"/>
-    <row r="166" ht="14.25" customHeight="1"/>
-    <row r="167" ht="14.25" customHeight="1"/>
-    <row r="168" ht="14.25" customHeight="1"/>
-    <row r="169" ht="14.25" customHeight="1"/>
-    <row r="170" ht="14.25" customHeight="1"/>
-    <row r="171" ht="14.25" customHeight="1"/>
-    <row r="172" ht="14.25" customHeight="1"/>
-    <row r="173" ht="14.25" customHeight="1"/>
-    <row r="174" ht="14.25" customHeight="1"/>
-    <row r="175" ht="14.25" customHeight="1"/>
-    <row r="176" ht="14.25" customHeight="1"/>
-    <row r="177" ht="14.25" customHeight="1"/>
-    <row r="178" ht="14.25" customHeight="1"/>
-    <row r="179" ht="14.25" customHeight="1"/>
-    <row r="180" ht="14.25" customHeight="1"/>
-    <row r="181" ht="14.25" customHeight="1"/>
-    <row r="182" ht="14.25" customHeight="1"/>
-    <row r="183" ht="14.25" customHeight="1"/>
-    <row r="184" ht="14.25" customHeight="1"/>
-    <row r="185" ht="14.25" customHeight="1"/>
-    <row r="186" ht="14.25" customHeight="1"/>
-    <row r="187" ht="14.25" customHeight="1"/>
-    <row r="188" ht="14.25" customHeight="1"/>
-    <row r="189" ht="14.25" customHeight="1"/>
-    <row r="190" ht="14.25" customHeight="1"/>
-    <row r="191" ht="14.25" customHeight="1"/>
-    <row r="192" ht="14.25" customHeight="1"/>
-    <row r="193" ht="14.25" customHeight="1"/>
-    <row r="194" ht="14.25" customHeight="1"/>
-    <row r="195" ht="14.25" customHeight="1"/>
-    <row r="196" ht="14.25" customHeight="1"/>
-    <row r="197" ht="14.25" customHeight="1"/>
-    <row r="198" ht="14.25" customHeight="1"/>
-    <row r="199" ht="14.25" customHeight="1"/>
-    <row r="200" ht="14.25" customHeight="1"/>
-    <row r="201" ht="14.25" customHeight="1"/>
-    <row r="202" ht="14.25" customHeight="1"/>
-    <row r="203" ht="14.25" customHeight="1"/>
-    <row r="204" ht="14.25" customHeight="1"/>
-    <row r="205" ht="14.25" customHeight="1"/>
-    <row r="206" ht="14.25" customHeight="1"/>
-    <row r="207" ht="14.25" customHeight="1"/>
-    <row r="208" ht="14.25" customHeight="1"/>
-    <row r="209" ht="14.25" customHeight="1"/>
-    <row r="210" ht="14.25" customHeight="1"/>
-    <row r="211" ht="14.25" customHeight="1"/>
-    <row r="212" ht="14.25" customHeight="1"/>
-    <row r="213" ht="14.25" customHeight="1"/>
-    <row r="214" ht="14.25" customHeight="1"/>
-    <row r="215" ht="14.25" customHeight="1"/>
-    <row r="216" ht="14.25" customHeight="1"/>
-    <row r="217" ht="14.25" customHeight="1"/>
-    <row r="218" ht="14.25" customHeight="1"/>
-    <row r="219" ht="14.25" customHeight="1"/>
-    <row r="220" ht="14.25" customHeight="1"/>
-    <row r="221" ht="14.25" customHeight="1"/>
-    <row r="222" ht="14.25" customHeight="1"/>
-    <row r="223" ht="14.25" customHeight="1"/>
-    <row r="224" ht="14.25" customHeight="1"/>
-    <row r="225" ht="14.25" customHeight="1"/>
-    <row r="226" ht="14.25" customHeight="1"/>
-    <row r="227" ht="14.25" customHeight="1"/>
-    <row r="228" ht="14.25" customHeight="1"/>
-    <row r="229" ht="14.25" customHeight="1"/>
-    <row r="230" ht="14.25" customHeight="1"/>
-    <row r="231" ht="14.25" customHeight="1"/>
-    <row r="232" ht="14.25" customHeight="1"/>
-    <row r="233" ht="14.25" customHeight="1"/>
-    <row r="234" ht="14.25" customHeight="1"/>
-    <row r="235" ht="14.25" customHeight="1"/>
-    <row r="236" ht="14.25" customHeight="1"/>
-    <row r="237" ht="14.25" customHeight="1"/>
-    <row r="238" ht="14.25" customHeight="1"/>
-    <row r="239" ht="14.25" customHeight="1"/>
-    <row r="240" ht="14.25" customHeight="1"/>
-    <row r="241" ht="14.25" customHeight="1"/>
-    <row r="242" ht="14.25" customHeight="1"/>
-    <row r="243" ht="14.25" customHeight="1"/>
-    <row r="244" ht="14.25" customHeight="1"/>
-    <row r="245" ht="14.25" customHeight="1"/>
-    <row r="246" ht="14.25" customHeight="1"/>
-    <row r="247" ht="14.25" customHeight="1"/>
-    <row r="248" ht="14.25" customHeight="1"/>
-    <row r="249" ht="14.25" customHeight="1"/>
-    <row r="250" ht="14.25" customHeight="1"/>
-    <row r="251" ht="14.25" customHeight="1"/>
-    <row r="252" ht="14.25" customHeight="1"/>
-    <row r="253" ht="14.25" customHeight="1"/>
-    <row r="254" ht="14.25" customHeight="1"/>
-    <row r="255" ht="14.25" customHeight="1"/>
-    <row r="256" ht="14.25" customHeight="1"/>
-    <row r="257" ht="14.25" customHeight="1"/>
-    <row r="258" ht="14.25" customHeight="1"/>
-    <row r="259" ht="14.25" customHeight="1"/>
-    <row r="260" ht="14.25" customHeight="1"/>
-    <row r="261" ht="14.25" customHeight="1"/>
-    <row r="262" ht="14.25" customHeight="1"/>
-    <row r="263" ht="14.25" customHeight="1"/>
-    <row r="264" ht="14.25" customHeight="1"/>
-    <row r="265" ht="14.25" customHeight="1"/>
-    <row r="266" ht="14.25" customHeight="1"/>
-    <row r="267" ht="14.25" customHeight="1"/>
-    <row r="268" ht="14.25" customHeight="1"/>
-    <row r="269" ht="14.25" customHeight="1"/>
-    <row r="270" ht="14.25" customHeight="1"/>
-    <row r="271" ht="14.25" customHeight="1"/>
-    <row r="272" ht="14.25" customHeight="1"/>
-    <row r="273" ht="14.25" customHeight="1"/>
-    <row r="274" ht="14.25" customHeight="1"/>
-    <row r="275" ht="14.25" customHeight="1"/>
-    <row r="276" ht="14.25" customHeight="1"/>
-    <row r="277" ht="14.25" customHeight="1"/>
-    <row r="278" ht="14.25" customHeight="1"/>
-    <row r="279" ht="14.25" customHeight="1"/>
-    <row r="280" ht="14.25" customHeight="1"/>
-    <row r="281" ht="14.25" customHeight="1"/>
-    <row r="282" ht="14.25" customHeight="1"/>
-    <row r="283" ht="14.25" customHeight="1"/>
-    <row r="284" ht="14.25" customHeight="1"/>
-    <row r="285" ht="14.25" customHeight="1"/>
-    <row r="286" ht="14.25" customHeight="1"/>
-    <row r="287" ht="14.25" customHeight="1"/>
-    <row r="288" ht="14.25" customHeight="1"/>
-    <row r="289" ht="14.25" customHeight="1"/>
-    <row r="290" ht="14.25" customHeight="1"/>
-    <row r="291" ht="14.25" customHeight="1"/>
-    <row r="292" ht="14.25" customHeight="1"/>
-    <row r="293" ht="14.25" customHeight="1"/>
-    <row r="294" ht="14.25" customHeight="1"/>
-    <row r="295" ht="14.25" customHeight="1"/>
-    <row r="296" ht="14.25" customHeight="1"/>
-    <row r="297" ht="14.25" customHeight="1"/>
-    <row r="298" ht="14.25" customHeight="1"/>
-    <row r="299" ht="14.25" customHeight="1"/>
-    <row r="300" ht="14.25" customHeight="1"/>
-    <row r="301" ht="14.25" customHeight="1"/>
-    <row r="302" ht="14.25" customHeight="1"/>
-    <row r="303" ht="14.25" customHeight="1"/>
-    <row r="304" ht="14.25" customHeight="1"/>
-    <row r="305" ht="14.25" customHeight="1"/>
-    <row r="306" ht="14.25" customHeight="1"/>
-    <row r="307" ht="14.25" customHeight="1"/>
-    <row r="308" ht="14.25" customHeight="1"/>
-    <row r="309" ht="14.25" customHeight="1"/>
-    <row r="310" ht="14.25" customHeight="1"/>
-    <row r="311" ht="14.25" customHeight="1"/>
-    <row r="312" ht="14.25" customHeight="1"/>
-    <row r="313" ht="14.25" customHeight="1"/>
-    <row r="314" ht="14.25" customHeight="1"/>
-    <row r="315" ht="14.25" customHeight="1"/>
-    <row r="316" ht="14.25" customHeight="1"/>
-    <row r="317" ht="14.25" customHeight="1"/>
-    <row r="318" ht="14.25" customHeight="1"/>
-    <row r="319" ht="14.25" customHeight="1"/>
-    <row r="320" ht="14.25" customHeight="1"/>
-    <row r="321" ht="14.25" customHeight="1"/>
-    <row r="322" ht="14.25" customHeight="1"/>
-    <row r="323" ht="14.25" customHeight="1"/>
-    <row r="324" ht="14.25" customHeight="1"/>
-    <row r="325" ht="14.25" customHeight="1"/>
-    <row r="326" ht="14.25" customHeight="1"/>
-    <row r="327" ht="14.25" customHeight="1"/>
-    <row r="328" ht="14.25" customHeight="1"/>
-    <row r="329" ht="14.25" customHeight="1"/>
-    <row r="330" ht="14.25" customHeight="1"/>
-    <row r="331" ht="14.25" customHeight="1"/>
-    <row r="332" ht="14.25" customHeight="1"/>
-    <row r="333" ht="14.25" customHeight="1"/>
-    <row r="334" ht="14.25" customHeight="1"/>
-    <row r="335" ht="14.25" customHeight="1"/>
-    <row r="336" ht="14.25" customHeight="1"/>
-    <row r="337" ht="14.25" customHeight="1"/>
-    <row r="338" ht="14.25" customHeight="1"/>
-    <row r="339" ht="14.25" customHeight="1"/>
-    <row r="340" ht="14.25" customHeight="1"/>
-    <row r="341" ht="14.25" customHeight="1"/>
-    <row r="342" ht="14.25" customHeight="1"/>
-    <row r="343" ht="14.25" customHeight="1"/>
-    <row r="344" ht="14.25" customHeight="1"/>
-    <row r="345" ht="14.25" customHeight="1"/>
-    <row r="346" ht="14.25" customHeight="1"/>
-    <row r="347" ht="14.25" customHeight="1"/>
-    <row r="348" ht="14.25" customHeight="1"/>
-    <row r="349" ht="14.25" customHeight="1"/>
-    <row r="350" ht="14.25" customHeight="1"/>
-    <row r="351" ht="14.25" customHeight="1"/>
-    <row r="352" ht="14.25" customHeight="1"/>
-    <row r="353" ht="14.25" customHeight="1"/>
-    <row r="354" ht="14.25" customHeight="1"/>
-    <row r="355" ht="14.25" customHeight="1"/>
-    <row r="356" ht="14.25" customHeight="1"/>
-    <row r="357" ht="14.25" customHeight="1"/>
-    <row r="358" ht="14.25" customHeight="1"/>
-    <row r="359" ht="14.25" customHeight="1"/>
-    <row r="360" ht="14.25" customHeight="1"/>
-    <row r="361" ht="14.25" customHeight="1"/>
-    <row r="362" ht="14.25" customHeight="1"/>
-    <row r="363" ht="14.25" customHeight="1"/>
-    <row r="364" ht="14.25" customHeight="1"/>
-    <row r="365" ht="14.25" customHeight="1"/>
-    <row r="366" ht="14.25" customHeight="1"/>
-    <row r="367" ht="14.25" customHeight="1"/>
-    <row r="368" ht="14.25" customHeight="1"/>
-    <row r="369" ht="14.25" customHeight="1"/>
-    <row r="370" ht="14.25" customHeight="1"/>
-    <row r="371" ht="14.25" customHeight="1"/>
-    <row r="372" ht="14.25" customHeight="1"/>
-    <row r="373" ht="14.25" customHeight="1"/>
-    <row r="374" ht="14.25" customHeight="1"/>
-    <row r="375" ht="14.25" customHeight="1"/>
-    <row r="376" ht="14.25" customHeight="1"/>
-    <row r="377" ht="14.25" customHeight="1"/>
-    <row r="378" ht="14.25" customHeight="1"/>
-    <row r="379" ht="14.25" customHeight="1"/>
-    <row r="380" ht="14.25" customHeight="1"/>
-    <row r="381" ht="14.25" customHeight="1"/>
-    <row r="382" ht="14.25" customHeight="1"/>
-    <row r="383" ht="14.25" customHeight="1"/>
-    <row r="384" ht="14.25" customHeight="1"/>
-    <row r="385" ht="14.25" customHeight="1"/>
-    <row r="386" ht="14.25" customHeight="1"/>
-    <row r="387" ht="14.25" customHeight="1"/>
-    <row r="388" ht="14.25" customHeight="1"/>
-    <row r="389" ht="14.25" customHeight="1"/>
-    <row r="390" ht="14.25" customHeight="1"/>
-    <row r="391" ht="14.25" customHeight="1"/>
-    <row r="392" ht="14.25" customHeight="1"/>
-    <row r="393" ht="14.25" customHeight="1"/>
-    <row r="394" ht="14.25" customHeight="1"/>
-    <row r="395" ht="14.25" customHeight="1"/>
-    <row r="396" ht="14.25" customHeight="1"/>
-    <row r="397" ht="14.25" customHeight="1"/>
-    <row r="398" ht="14.25" customHeight="1"/>
-    <row r="399" ht="14.25" customHeight="1"/>
-    <row r="400" ht="14.25" customHeight="1"/>
-    <row r="401" ht="14.25" customHeight="1"/>
-    <row r="402" ht="14.25" customHeight="1"/>
-    <row r="403" ht="14.25" customHeight="1"/>
-    <row r="404" ht="14.25" customHeight="1"/>
-    <row r="405" ht="14.25" customHeight="1"/>
-    <row r="406" ht="14.25" customHeight="1"/>
-    <row r="407" ht="14.25" customHeight="1"/>
-    <row r="408" ht="14.25" customHeight="1"/>
-    <row r="409" ht="14.25" customHeight="1"/>
-    <row r="410" ht="14.25" customHeight="1"/>
-    <row r="411" ht="14.25" customHeight="1"/>
-    <row r="412" ht="14.25" customHeight="1"/>
-    <row r="413" ht="14.25" customHeight="1"/>
-    <row r="414" ht="14.25" customHeight="1"/>
-    <row r="415" ht="14.25" customHeight="1"/>
-    <row r="416" ht="14.25" customHeight="1"/>
-    <row r="417" ht="14.25" customHeight="1"/>
-    <row r="418" ht="14.25" customHeight="1"/>
-    <row r="419" ht="14.25" customHeight="1"/>
-    <row r="420" ht="14.25" customHeight="1"/>
-    <row r="421" ht="14.25" customHeight="1"/>
-    <row r="422" ht="14.25" customHeight="1"/>
-    <row r="423" ht="14.25" customHeight="1"/>
-    <row r="424" ht="14.25" customHeight="1"/>
-    <row r="425" ht="14.25" customHeight="1"/>
-    <row r="426" ht="14.25" customHeight="1"/>
-    <row r="427" ht="14.25" customHeight="1"/>
-    <row r="428" ht="14.25" customHeight="1"/>
-    <row r="429" ht="14.25" customHeight="1"/>
-    <row r="430" ht="14.25" customHeight="1"/>
-    <row r="431" ht="14.25" customHeight="1"/>
-    <row r="432" ht="14.25" customHeight="1"/>
-    <row r="433" ht="14.25" customHeight="1"/>
-    <row r="434" ht="14.25" customHeight="1"/>
-    <row r="435" ht="14.25" customHeight="1"/>
-    <row r="436" ht="14.25" customHeight="1"/>
-    <row r="437" ht="14.25" customHeight="1"/>
-    <row r="438" ht="14.25" customHeight="1"/>
-    <row r="439" ht="14.25" customHeight="1"/>
-    <row r="440" ht="14.25" customHeight="1"/>
-    <row r="441" ht="14.25" customHeight="1"/>
-    <row r="442" ht="14.25" customHeight="1"/>
-    <row r="443" ht="14.25" customHeight="1"/>
-    <row r="444" ht="14.25" customHeight="1"/>
-    <row r="445" ht="14.25" customHeight="1"/>
-    <row r="446" ht="14.25" customHeight="1"/>
-    <row r="447" ht="14.25" customHeight="1"/>
-    <row r="448" ht="14.25" customHeight="1"/>
-    <row r="449" ht="14.25" customHeight="1"/>
-    <row r="450" ht="14.25" customHeight="1"/>
-    <row r="451" ht="14.25" customHeight="1"/>
-    <row r="452" ht="14.25" customHeight="1"/>
-    <row r="453" ht="14.25" customHeight="1"/>
-    <row r="454" ht="14.25" customHeight="1"/>
-    <row r="455" ht="14.25" customHeight="1"/>
-    <row r="456" ht="14.25" customHeight="1"/>
-    <row r="457" ht="14.25" customHeight="1"/>
-    <row r="458" ht="14.25" customHeight="1"/>
-    <row r="459" ht="14.25" customHeight="1"/>
-    <row r="460" ht="14.25" customHeight="1"/>
-    <row r="461" ht="14.25" customHeight="1"/>
-    <row r="462" ht="14.25" customHeight="1"/>
-    <row r="463" ht="14.25" customHeight="1"/>
-    <row r="464" ht="14.25" customHeight="1"/>
-    <row r="465" ht="14.25" customHeight="1"/>
-    <row r="466" ht="14.25" customHeight="1"/>
-    <row r="467" ht="14.25" customHeight="1"/>
-    <row r="468" ht="14.25" customHeight="1"/>
-    <row r="469" ht="14.25" customHeight="1"/>
-    <row r="470" ht="14.25" customHeight="1"/>
-    <row r="471" ht="14.25" customHeight="1"/>
-    <row r="472" ht="14.25" customHeight="1"/>
-    <row r="473" ht="14.25" customHeight="1"/>
-    <row r="474" ht="14.25" customHeight="1"/>
-    <row r="475" ht="14.25" customHeight="1"/>
-    <row r="476" ht="14.25" customHeight="1"/>
-    <row r="477" ht="14.25" customHeight="1"/>
-    <row r="478" ht="14.25" customHeight="1"/>
-    <row r="479" ht="14.25" customHeight="1"/>
-    <row r="480" ht="14.25" customHeight="1"/>
-    <row r="481" ht="14.25" customHeight="1"/>
-    <row r="482" ht="14.25" customHeight="1"/>
-    <row r="483" ht="14.25" customHeight="1"/>
-    <row r="484" ht="14.25" customHeight="1"/>
-    <row r="485" ht="14.25" customHeight="1"/>
-    <row r="486" ht="14.25" customHeight="1"/>
-    <row r="487" ht="14.25" customHeight="1"/>
-    <row r="488" ht="14.25" customHeight="1"/>
-    <row r="489" ht="14.25" customHeight="1"/>
-    <row r="490" ht="14.25" customHeight="1"/>
-    <row r="491" ht="14.25" customHeight="1"/>
-    <row r="492" ht="14.25" customHeight="1"/>
-    <row r="493" ht="14.25" customHeight="1"/>
-    <row r="494" ht="14.25" customHeight="1"/>
-    <row r="495" ht="14.25" customHeight="1"/>
-    <row r="496" ht="14.25" customHeight="1"/>
-    <row r="497" ht="14.25" customHeight="1"/>
-    <row r="498" ht="14.25" customHeight="1"/>
-    <row r="499" ht="14.25" customHeight="1"/>
-    <row r="500" ht="14.25" customHeight="1"/>
-    <row r="501" ht="14.25" customHeight="1"/>
-    <row r="502" ht="14.25" customHeight="1"/>
-    <row r="503" ht="14.25" customHeight="1"/>
-    <row r="504" ht="14.25" customHeight="1"/>
-    <row r="505" ht="14.25" customHeight="1"/>
-    <row r="506" ht="14.25" customHeight="1"/>
-    <row r="507" ht="14.25" customHeight="1"/>
-    <row r="508" ht="14.25" customHeight="1"/>
-    <row r="509" ht="14.25" customHeight="1"/>
-    <row r="510" ht="14.25" customHeight="1"/>
-    <row r="511" ht="14.25" customHeight="1"/>
-    <row r="512" ht="14.25" customHeight="1"/>
-    <row r="513" ht="14.25" customHeight="1"/>
-    <row r="514" ht="14.25" customHeight="1"/>
-    <row r="515" ht="14.25" customHeight="1"/>
-    <row r="516" ht="14.25" customHeight="1"/>
-    <row r="517" ht="14.25" customHeight="1"/>
-    <row r="518" ht="14.25" customHeight="1"/>
-    <row r="519" ht="14.25" customHeight="1"/>
-    <row r="520" ht="14.25" customHeight="1"/>
-    <row r="521" ht="14.25" customHeight="1"/>
-    <row r="522" ht="14.25" customHeight="1"/>
-    <row r="523" ht="14.25" customHeight="1"/>
-    <row r="524" ht="14.25" customHeight="1"/>
-    <row r="525" ht="14.25" customHeight="1"/>
-    <row r="526" ht="14.25" customHeight="1"/>
-    <row r="527" ht="14.25" customHeight="1"/>
-    <row r="528" ht="14.25" customHeight="1"/>
-    <row r="529" ht="14.25" customHeight="1"/>
-    <row r="530" ht="14.25" customHeight="1"/>
-    <row r="531" ht="14.25" customHeight="1"/>
-    <row r="532" ht="14.25" customHeight="1"/>
-    <row r="533" ht="14.25" customHeight="1"/>
-    <row r="534" ht="14.25" customHeight="1"/>
-    <row r="535" ht="14.25" customHeight="1"/>
-    <row r="536" ht="14.25" customHeight="1"/>
-    <row r="537" ht="14.25" customHeight="1"/>
-    <row r="538" ht="14.25" customHeight="1"/>
-    <row r="539" ht="14.25" customHeight="1"/>
-    <row r="540" ht="14.25" customHeight="1"/>
-    <row r="541" ht="14.25" customHeight="1"/>
-    <row r="542" ht="14.25" customHeight="1"/>
-    <row r="543" ht="14.25" customHeight="1"/>
-    <row r="544" ht="14.25" customHeight="1"/>
-    <row r="545" ht="14.25" customHeight="1"/>
-    <row r="546" ht="14.25" customHeight="1"/>
-    <row r="547" ht="14.25" customHeight="1"/>
-    <row r="548" ht="14.25" customHeight="1"/>
-    <row r="549" ht="14.25" customHeight="1"/>
-    <row r="550" ht="14.25" customHeight="1"/>
-    <row r="551" ht="14.25" customHeight="1"/>
-    <row r="552" ht="14.25" customHeight="1"/>
-    <row r="553" ht="14.25" customHeight="1"/>
-    <row r="554" ht="14.25" customHeight="1"/>
-    <row r="555" ht="14.25" customHeight="1"/>
-    <row r="556" ht="14.25" customHeight="1"/>
-    <row r="557" ht="14.25" customHeight="1"/>
-    <row r="558" ht="14.25" customHeight="1"/>
-    <row r="559" ht="14.25" customHeight="1"/>
-    <row r="560" ht="14.25" customHeight="1"/>
-    <row r="561" ht="14.25" customHeight="1"/>
-    <row r="562" ht="14.25" customHeight="1"/>
-    <row r="563" ht="14.25" customHeight="1"/>
-    <row r="564" ht="14.25" customHeight="1"/>
-    <row r="565" ht="14.25" customHeight="1"/>
-    <row r="566" ht="14.25" customHeight="1"/>
-    <row r="567" ht="14.25" customHeight="1"/>
-    <row r="568" ht="14.25" customHeight="1"/>
-    <row r="569" ht="14.25" customHeight="1"/>
-    <row r="570" ht="14.25" customHeight="1"/>
-    <row r="571" ht="14.25" customHeight="1"/>
-    <row r="572" ht="14.25" customHeight="1"/>
-    <row r="573" ht="14.25" customHeight="1"/>
-    <row r="574" ht="14.25" customHeight="1"/>
-    <row r="575" ht="14.25" customHeight="1"/>
-    <row r="576" ht="14.25" customHeight="1"/>
-    <row r="577" ht="14.25" customHeight="1"/>
-    <row r="578" ht="14.25" customHeight="1"/>
-    <row r="579" ht="14.25" customHeight="1"/>
-    <row r="580" ht="14.25" customHeight="1"/>
-    <row r="581" ht="14.25" customHeight="1"/>
-    <row r="582" ht="14.25" customHeight="1"/>
-    <row r="583" ht="14.25" customHeight="1"/>
-    <row r="584" ht="14.25" customHeight="1"/>
-    <row r="585" ht="14.25" customHeight="1"/>
-    <row r="586" ht="14.25" customHeight="1"/>
-    <row r="587" ht="14.25" customHeight="1"/>
-    <row r="588" ht="14.25" customHeight="1"/>
-    <row r="589" ht="14.25" customHeight="1"/>
-    <row r="590" ht="14.25" customHeight="1"/>
-    <row r="591" ht="14.25" customHeight="1"/>
-    <row r="592" ht="14.25" customHeight="1"/>
-    <row r="593" ht="14.25" customHeight="1"/>
-    <row r="594" ht="14.25" customHeight="1"/>
-    <row r="595" ht="14.25" customHeight="1"/>
-    <row r="596" ht="14.25" customHeight="1"/>
-    <row r="597" ht="14.25" customHeight="1"/>
-    <row r="598" ht="14.25" customHeight="1"/>
-    <row r="599" ht="14.25" customHeight="1"/>
-    <row r="600" ht="14.25" customHeight="1"/>
-    <row r="601" ht="14.25" customHeight="1"/>
-    <row r="602" ht="14.25" customHeight="1"/>
-    <row r="603" ht="14.25" customHeight="1"/>
-    <row r="604" ht="14.25" customHeight="1"/>
-    <row r="605" ht="14.25" customHeight="1"/>
-    <row r="606" ht="14.25" customHeight="1"/>
-    <row r="607" ht="14.25" customHeight="1"/>
-    <row r="608" ht="14.25" customHeight="1"/>
-    <row r="609" ht="14.25" customHeight="1"/>
-    <row r="610" ht="14.25" customHeight="1"/>
-    <row r="611" ht="14.25" customHeight="1"/>
-    <row r="612" ht="14.25" customHeight="1"/>
-    <row r="613" ht="14.25" customHeight="1"/>
-    <row r="614" ht="14.25" customHeight="1"/>
-    <row r="615" ht="14.25" customHeight="1"/>
-    <row r="616" ht="14.25" customHeight="1"/>
-    <row r="617" ht="14.25" customHeight="1"/>
-    <row r="618" ht="14.25" customHeight="1"/>
-    <row r="619" ht="14.25" customHeight="1"/>
-    <row r="620" ht="14.25" customHeight="1"/>
-    <row r="621" ht="14.25" customHeight="1"/>
-    <row r="622" ht="14.25" customHeight="1"/>
-    <row r="623" ht="14.25" customHeight="1"/>
-    <row r="624" ht="14.25" customHeight="1"/>
-    <row r="625" ht="14.25" customHeight="1"/>
-    <row r="626" ht="14.25" customHeight="1"/>
-    <row r="627" ht="14.25" customHeight="1"/>
-    <row r="628" ht="14.25" customHeight="1"/>
-    <row r="629" ht="14.25" customHeight="1"/>
-    <row r="630" ht="14.25" customHeight="1"/>
-    <row r="631" ht="14.25" customHeight="1"/>
-    <row r="632" ht="14.25" customHeight="1"/>
-    <row r="633" ht="14.25" customHeight="1"/>
-    <row r="634" ht="14.25" customHeight="1"/>
-    <row r="635" ht="14.25" customHeight="1"/>
-    <row r="636" ht="14.25" customHeight="1"/>
-    <row r="637" ht="14.25" customHeight="1"/>
-    <row r="638" ht="14.25" customHeight="1"/>
-    <row r="639" ht="14.25" customHeight="1"/>
-    <row r="640" ht="14.25" customHeight="1"/>
-    <row r="641" ht="14.25" customHeight="1"/>
-    <row r="642" ht="14.25" customHeight="1"/>
-    <row r="643" ht="14.25" customHeight="1"/>
-    <row r="644" ht="14.25" customHeight="1"/>
-    <row r="645" ht="14.25" customHeight="1"/>
-    <row r="646" ht="14.25" customHeight="1"/>
-    <row r="647" ht="14.25" customHeight="1"/>
-    <row r="648" ht="14.25" customHeight="1"/>
-    <row r="649" ht="14.25" customHeight="1"/>
-    <row r="650" ht="14.25" customHeight="1"/>
-    <row r="651" ht="14.25" customHeight="1"/>
-    <row r="652" ht="14.25" customHeight="1"/>
-    <row r="653" ht="14.25" customHeight="1"/>
-    <row r="654" ht="14.25" customHeight="1"/>
-    <row r="655" ht="14.25" customHeight="1"/>
-    <row r="656" ht="14.25" customHeight="1"/>
-    <row r="657" ht="14.25" customHeight="1"/>
-    <row r="658" ht="14.25" customHeight="1"/>
-    <row r="659" ht="14.25" customHeight="1"/>
-    <row r="660" ht="14.25" customHeight="1"/>
-    <row r="661" ht="14.25" customHeight="1"/>
-    <row r="662" ht="14.25" customHeight="1"/>
-    <row r="663" ht="14.25" customHeight="1"/>
-    <row r="664" ht="14.25" customHeight="1"/>
-    <row r="665" ht="14.25" customHeight="1"/>
-    <row r="666" ht="14.25" customHeight="1"/>
-    <row r="667" ht="14.25" customHeight="1"/>
-    <row r="668" ht="14.25" customHeight="1"/>
-    <row r="669" ht="14.25" customHeight="1"/>
-    <row r="670" ht="14.25" customHeight="1"/>
-    <row r="671" ht="14.25" customHeight="1"/>
-    <row r="672" ht="14.25" customHeight="1"/>
-    <row r="673" ht="14.25" customHeight="1"/>
-    <row r="674" ht="14.25" customHeight="1"/>
-    <row r="675" ht="14.25" customHeight="1"/>
-    <row r="676" ht="14.25" customHeight="1"/>
-    <row r="677" ht="14.25" customHeight="1"/>
-    <row r="678" ht="14.25" customHeight="1"/>
-    <row r="679" ht="14.25" customHeight="1"/>
-    <row r="680" ht="14.25" customHeight="1"/>
-    <row r="681" ht="14.25" customHeight="1"/>
-    <row r="682" ht="14.25" customHeight="1"/>
-    <row r="683" ht="14.25" customHeight="1"/>
-    <row r="684" ht="14.25" customHeight="1"/>
-    <row r="685" ht="14.25" customHeight="1"/>
-    <row r="686" ht="14.25" customHeight="1"/>
-    <row r="687" ht="14.25" customHeight="1"/>
-    <row r="688" ht="14.25" customHeight="1"/>
-    <row r="689" ht="14.25" customHeight="1"/>
-    <row r="690" ht="14.25" customHeight="1"/>
-    <row r="691" ht="14.25" customHeight="1"/>
-    <row r="692" ht="14.25" customHeight="1"/>
-    <row r="693" ht="14.25" customHeight="1"/>
-    <row r="694" ht="14.25" customHeight="1"/>
-    <row r="695" ht="14.25" customHeight="1"/>
-    <row r="696" ht="14.25" customHeight="1"/>
-    <row r="697" ht="14.25" customHeight="1"/>
-    <row r="698" ht="14.25" customHeight="1"/>
-    <row r="699" ht="14.25" customHeight="1"/>
-    <row r="700" ht="14.25" customHeight="1"/>
-    <row r="701" ht="14.25" customHeight="1"/>
-    <row r="702" ht="14.25" customHeight="1"/>
-    <row r="703" ht="14.25" customHeight="1"/>
-    <row r="704" ht="14.25" customHeight="1"/>
-    <row r="705" ht="14.25" customHeight="1"/>
-    <row r="706" ht="14.25" customHeight="1"/>
-    <row r="707" ht="14.25" customHeight="1"/>
-    <row r="708" ht="14.25" customHeight="1"/>
-    <row r="709" ht="14.25" customHeight="1"/>
-    <row r="710" ht="14.25" customHeight="1"/>
-    <row r="711" ht="14.25" customHeight="1"/>
-    <row r="712" ht="14.25" customHeight="1"/>
-    <row r="713" ht="14.25" customHeight="1"/>
-    <row r="714" ht="14.25" customHeight="1"/>
-    <row r="715" ht="14.25" customHeight="1"/>
-    <row r="716" ht="14.25" customHeight="1"/>
-    <row r="717" ht="14.25" customHeight="1"/>
-    <row r="718" ht="14.25" customHeight="1"/>
-    <row r="719" ht="14.25" customHeight="1"/>
-    <row r="720" ht="14.25" customHeight="1"/>
-    <row r="721" ht="14.25" customHeight="1"/>
-    <row r="722" ht="14.25" customHeight="1"/>
-    <row r="723" ht="14.25" customHeight="1"/>
-    <row r="724" ht="14.25" customHeight="1"/>
-    <row r="725" ht="14.25" customHeight="1"/>
-    <row r="726" ht="14.25" customHeight="1"/>
-    <row r="727" ht="14.25" customHeight="1"/>
-    <row r="728" ht="14.25" customHeight="1"/>
-    <row r="729" ht="14.25" customHeight="1"/>
-    <row r="730" ht="14.25" customHeight="1"/>
-    <row r="731" ht="14.25" customHeight="1"/>
-    <row r="732" ht="14.25" customHeight="1"/>
-    <row r="733" ht="14.25" customHeight="1"/>
-    <row r="734" ht="14.25" customHeight="1"/>
-    <row r="735" ht="14.25" customHeight="1"/>
-    <row r="736" ht="14.25" customHeight="1"/>
-    <row r="737" ht="14.25" customHeight="1"/>
-    <row r="738" ht="14.25" customHeight="1"/>
-    <row r="739" ht="14.25" customHeight="1"/>
-    <row r="740" ht="14.25" customHeight="1"/>
-    <row r="741" ht="14.25" customHeight="1"/>
-    <row r="742" ht="14.25" customHeight="1"/>
-    <row r="743" ht="14.25" customHeight="1"/>
-    <row r="744" ht="14.25" customHeight="1"/>
-    <row r="745" ht="14.25" customHeight="1"/>
-    <row r="746" ht="14.25" customHeight="1"/>
-    <row r="747" ht="14.25" customHeight="1"/>
-    <row r="748" ht="14.25" customHeight="1"/>
-    <row r="749" ht="14.25" customHeight="1"/>
-    <row r="750" ht="14.25" customHeight="1"/>
-    <row r="751" ht="14.25" customHeight="1"/>
-    <row r="752" ht="14.25" customHeight="1"/>
-    <row r="753" ht="14.25" customHeight="1"/>
-    <row r="754" ht="14.25" customHeight="1"/>
-    <row r="755" ht="14.25" customHeight="1"/>
-    <row r="756" ht="14.25" customHeight="1"/>
-    <row r="757" ht="14.25" customHeight="1"/>
-    <row r="758" ht="14.25" customHeight="1"/>
-    <row r="759" ht="14.25" customHeight="1"/>
-    <row r="760" ht="14.25" customHeight="1"/>
-    <row r="761" ht="14.25" customHeight="1"/>
-    <row r="762" ht="14.25" customHeight="1"/>
-    <row r="763" ht="14.25" customHeight="1"/>
-    <row r="764" ht="14.25" customHeight="1"/>
-    <row r="765" ht="14.25" customHeight="1"/>
-    <row r="766" ht="14.25" customHeight="1"/>
-    <row r="767" ht="14.25" customHeight="1"/>
-    <row r="768" ht="14.25" customHeight="1"/>
-    <row r="769" ht="14.25" customHeight="1"/>
-    <row r="770" ht="14.25" customHeight="1"/>
-    <row r="771" ht="14.25" customHeight="1"/>
-    <row r="772" ht="14.25" customHeight="1"/>
-    <row r="773" ht="14.25" customHeight="1"/>
-    <row r="774" ht="14.25" customHeight="1"/>
-    <row r="775" ht="14.25" customHeight="1"/>
-    <row r="776" ht="14.25" customHeight="1"/>
-    <row r="777" ht="14.25" customHeight="1"/>
-    <row r="778" ht="14.25" customHeight="1"/>
-    <row r="779" ht="14.25" customHeight="1"/>
-    <row r="780" ht="14.25" customHeight="1"/>
-    <row r="781" ht="14.25" customHeight="1"/>
-    <row r="782" ht="14.25" customHeight="1"/>
-    <row r="783" ht="14.25" customHeight="1"/>
-    <row r="784" ht="14.25" customHeight="1"/>
-    <row r="785" ht="14.25" customHeight="1"/>
-    <row r="786" ht="14.25" customHeight="1"/>
-    <row r="787" ht="14.25" customHeight="1"/>
-    <row r="788" ht="14.25" customHeight="1"/>
-    <row r="789" ht="14.25" customHeight="1"/>
-    <row r="790" ht="14.25" customHeight="1"/>
-    <row r="791" ht="14.25" customHeight="1"/>
-    <row r="792" ht="14.25" customHeight="1"/>
-    <row r="793" ht="14.25" customHeight="1"/>
-    <row r="794" ht="14.25" customHeight="1"/>
-    <row r="795" ht="14.25" customHeight="1"/>
-    <row r="796" ht="14.25" customHeight="1"/>
-    <row r="797" ht="14.25" customHeight="1"/>
-    <row r="798" ht="14.25" customHeight="1"/>
-    <row r="799" ht="14.25" customHeight="1"/>
-    <row r="800" ht="14.25" customHeight="1"/>
-    <row r="801" ht="14.25" customHeight="1"/>
-    <row r="802" ht="14.25" customHeight="1"/>
-    <row r="803" ht="14.25" customHeight="1"/>
-    <row r="804" ht="14.25" customHeight="1"/>
-    <row r="805" ht="14.25" customHeight="1"/>
-    <row r="806" ht="14.25" customHeight="1"/>
-    <row r="807" ht="14.25" customHeight="1"/>
-    <row r="808" ht="14.25" customHeight="1"/>
-    <row r="809" ht="14.25" customHeight="1"/>
-    <row r="810" ht="14.25" customHeight="1"/>
-    <row r="811" ht="14.25" customHeight="1"/>
-    <row r="812" ht="14.25" customHeight="1"/>
-    <row r="813" ht="14.25" customHeight="1"/>
-    <row r="814" ht="14.25" customHeight="1"/>
-    <row r="815" ht="14.25" customHeight="1"/>
-    <row r="816" ht="14.25" customHeight="1"/>
-    <row r="817" ht="14.25" customHeight="1"/>
-    <row r="818" ht="14.25" customHeight="1"/>
-    <row r="819" ht="14.25" customHeight="1"/>
-    <row r="820" ht="14.25" customHeight="1"/>
-    <row r="821" ht="14.25" customHeight="1"/>
-    <row r="822" ht="14.25" customHeight="1"/>
-    <row r="823" ht="14.25" customHeight="1"/>
-    <row r="824" ht="14.25" customHeight="1"/>
-    <row r="825" ht="14.25" customHeight="1"/>
-    <row r="826" ht="14.25" customHeight="1"/>
-    <row r="827" ht="14.25" customHeight="1"/>
-    <row r="828" ht="14.25" customHeight="1"/>
-    <row r="829" ht="14.25" customHeight="1"/>
-    <row r="830" ht="14.25" customHeight="1"/>
-    <row r="831" ht="14.25" customHeight="1"/>
-    <row r="832" ht="14.25" customHeight="1"/>
-    <row r="833" ht="14.25" customHeight="1"/>
-    <row r="834" ht="14.25" customHeight="1"/>
-    <row r="835" ht="14.25" customHeight="1"/>
-    <row r="836" ht="14.25" customHeight="1"/>
-    <row r="837" ht="14.25" customHeight="1"/>
-    <row r="838" ht="14.25" customHeight="1"/>
-    <row r="839" ht="14.25" customHeight="1"/>
-    <row r="840" ht="14.25" customHeight="1"/>
-    <row r="841" ht="14.25" customHeight="1"/>
-    <row r="842" ht="14.25" customHeight="1"/>
-    <row r="843" ht="14.25" customHeight="1"/>
-    <row r="844" ht="14.25" customHeight="1"/>
-    <row r="845" ht="14.25" customHeight="1"/>
-    <row r="846" ht="14.25" customHeight="1"/>
-    <row r="847" ht="14.25" customHeight="1"/>
-    <row r="848" ht="14.25" customHeight="1"/>
-    <row r="849" ht="14.25" customHeight="1"/>
-    <row r="850" ht="14.25" customHeight="1"/>
-    <row r="851" ht="14.25" customHeight="1"/>
-    <row r="852" ht="14.25" customHeight="1"/>
-    <row r="853" ht="14.25" customHeight="1"/>
-    <row r="854" ht="14.25" customHeight="1"/>
-    <row r="855" ht="14.25" customHeight="1"/>
-    <row r="856" ht="14.25" customHeight="1"/>
-    <row r="857" ht="14.25" customHeight="1"/>
-    <row r="858" ht="14.25" customHeight="1"/>
-    <row r="859" ht="14.25" customHeight="1"/>
-    <row r="860" ht="14.25" customHeight="1"/>
-    <row r="861" ht="14.25" customHeight="1"/>
-    <row r="862" ht="14.25" customHeight="1"/>
-    <row r="863" ht="14.25" customHeight="1"/>
-    <row r="864" ht="14.25" customHeight="1"/>
-    <row r="865" ht="14.25" customHeight="1"/>
-    <row r="866" ht="14.25" customHeight="1"/>
-    <row r="867" ht="14.25" customHeight="1"/>
-    <row r="868" ht="14.25" customHeight="1"/>
-    <row r="869" ht="14.25" customHeight="1"/>
-    <row r="870" ht="14.25" customHeight="1"/>
-    <row r="871" ht="14.25" customHeight="1"/>
-    <row r="872" ht="14.25" customHeight="1"/>
-    <row r="873" ht="14.25" customHeight="1"/>
-    <row r="874" ht="14.25" customHeight="1"/>
-    <row r="875" ht="14.25" customHeight="1"/>
-    <row r="876" ht="14.25" customHeight="1"/>
-    <row r="877" ht="14.25" customHeight="1"/>
-    <row r="878" ht="14.25" customHeight="1"/>
-    <row r="879" ht="14.25" customHeight="1"/>
-    <row r="880" ht="14.25" customHeight="1"/>
-    <row r="881" ht="14.25" customHeight="1"/>
-    <row r="882" ht="14.25" customHeight="1"/>
-    <row r="883" ht="14.25" customHeight="1"/>
-    <row r="884" ht="14.25" customHeight="1"/>
-    <row r="885" ht="14.25" customHeight="1"/>
-    <row r="886" ht="14.25" customHeight="1"/>
-    <row r="887" ht="14.25" customHeight="1"/>
-    <row r="888" ht="14.25" customHeight="1"/>
-    <row r="889" ht="14.25" customHeight="1"/>
-    <row r="890" ht="14.25" customHeight="1"/>
-    <row r="891" ht="14.25" customHeight="1"/>
-    <row r="892" ht="14.25" customHeight="1"/>
-    <row r="893" ht="14.25" customHeight="1"/>
-    <row r="894" ht="14.25" customHeight="1"/>
-    <row r="895" ht="14.25" customHeight="1"/>
-    <row r="896" ht="14.25" customHeight="1"/>
-    <row r="897" ht="14.25" customHeight="1"/>
-    <row r="898" ht="14.25" customHeight="1"/>
-    <row r="899" ht="14.25" customHeight="1"/>
-    <row r="900" ht="14.25" customHeight="1"/>
-    <row r="901" ht="14.25" customHeight="1"/>
-    <row r="902" ht="14.25" customHeight="1"/>
-    <row r="903" ht="14.25" customHeight="1"/>
-    <row r="904" ht="14.25" customHeight="1"/>
-    <row r="905" ht="14.25" customHeight="1"/>
-    <row r="906" ht="14.25" customHeight="1"/>
-    <row r="907" ht="14.25" customHeight="1"/>
-    <row r="908" ht="14.25" customHeight="1"/>
-    <row r="909" ht="14.25" customHeight="1"/>
-    <row r="910" ht="14.25" customHeight="1"/>
-    <row r="911" ht="14.25" customHeight="1"/>
-    <row r="912" ht="14.25" customHeight="1"/>
-    <row r="913" ht="14.25" customHeight="1"/>
-    <row r="914" ht="14.25" customHeight="1"/>
-    <row r="915" ht="14.25" customHeight="1"/>
-    <row r="916" ht="14.25" customHeight="1"/>
-    <row r="917" ht="14.25" customHeight="1"/>
-    <row r="918" ht="14.25" customHeight="1"/>
-    <row r="919" ht="14.25" customHeight="1"/>
-    <row r="920" ht="14.25" customHeight="1"/>
-    <row r="921" ht="14.25" customHeight="1"/>
-    <row r="922" ht="14.25" customHeight="1"/>
-    <row r="923" ht="14.25" customHeight="1"/>
-    <row r="924" ht="14.25" customHeight="1"/>
-    <row r="925" ht="14.25" customHeight="1"/>
-    <row r="926" ht="14.25" customHeight="1"/>
-    <row r="927" ht="14.25" customHeight="1"/>
-    <row r="928" ht="14.25" customHeight="1"/>
-    <row r="929" ht="14.25" customHeight="1"/>
-    <row r="930" ht="14.25" customHeight="1"/>
-    <row r="931" ht="14.25" customHeight="1"/>
-    <row r="932" ht="14.25" customHeight="1"/>
-    <row r="933" ht="14.25" customHeight="1"/>
-    <row r="934" ht="14.25" customHeight="1"/>
-    <row r="935" ht="14.25" customHeight="1"/>
-    <row r="936" ht="14.25" customHeight="1"/>
-    <row r="937" ht="14.25" customHeight="1"/>
-    <row r="938" ht="14.25" customHeight="1"/>
-    <row r="939" ht="14.25" customHeight="1"/>
-    <row r="940" ht="14.25" customHeight="1"/>
-    <row r="941" ht="14.25" customHeight="1"/>
-    <row r="942" ht="14.25" customHeight="1"/>
-    <row r="943" ht="14.25" customHeight="1"/>
-    <row r="944" ht="14.25" customHeight="1"/>
-    <row r="945" ht="14.25" customHeight="1"/>
-    <row r="946" ht="14.25" customHeight="1"/>
-    <row r="947" ht="14.25" customHeight="1"/>
-    <row r="948" ht="14.25" customHeight="1"/>
-    <row r="949" ht="14.25" customHeight="1"/>
-    <row r="950" ht="14.25" customHeight="1"/>
-    <row r="951" ht="14.25" customHeight="1"/>
-    <row r="952" ht="14.25" customHeight="1"/>
-    <row r="953" ht="14.25" customHeight="1"/>
-    <row r="954" ht="14.25" customHeight="1"/>
-    <row r="955" ht="14.25" customHeight="1"/>
-    <row r="956" ht="14.25" customHeight="1"/>
-    <row r="957" ht="14.25" customHeight="1"/>
-    <row r="958" ht="14.25" customHeight="1"/>
-    <row r="959" ht="14.25" customHeight="1"/>
-    <row r="960" ht="14.25" customHeight="1"/>
-    <row r="961" ht="14.25" customHeight="1"/>
-    <row r="962" ht="14.25" customHeight="1"/>
-    <row r="963" ht="14.25" customHeight="1"/>
-    <row r="964" ht="14.25" customHeight="1"/>
-    <row r="965" ht="14.25" customHeight="1"/>
-    <row r="966" ht="14.25" customHeight="1"/>
-    <row r="967" ht="14.25" customHeight="1"/>
-    <row r="968" ht="14.25" customHeight="1"/>
-    <row r="969" ht="14.25" customHeight="1"/>
-    <row r="970" ht="14.25" customHeight="1"/>
-    <row r="971" ht="14.25" customHeight="1"/>
-    <row r="972" ht="14.25" customHeight="1"/>
-    <row r="973" ht="14.25" customHeight="1"/>
-    <row r="974" ht="14.25" customHeight="1"/>
-    <row r="975" ht="14.25" customHeight="1"/>
-    <row r="976" ht="14.25" customHeight="1"/>
-    <row r="977" ht="14.25" customHeight="1"/>
-    <row r="978" ht="14.25" customHeight="1"/>
-    <row r="979" ht="14.25" customHeight="1"/>
-    <row r="980" ht="14.25" customHeight="1"/>
-    <row r="981" ht="14.25" customHeight="1"/>
-    <row r="982" ht="14.25" customHeight="1"/>
-    <row r="983" ht="14.25" customHeight="1"/>
-    <row r="984" ht="14.25" customHeight="1"/>
-    <row r="985" ht="14.25" customHeight="1"/>
-    <row r="986" ht="14.25" customHeight="1"/>
-    <row r="987" ht="14.25" customHeight="1"/>
-    <row r="988" ht="14.25" customHeight="1"/>
-    <row r="989" ht="14.25" customHeight="1"/>
-    <row r="990" ht="14.25" customHeight="1"/>
-    <row r="991" ht="14.25" customHeight="1"/>
-    <row r="992" ht="14.25" customHeight="1"/>
-    <row r="993" ht="14.25" customHeight="1"/>
-    <row r="994" ht="14.25" customHeight="1"/>
-    <row r="995" ht="14.25" customHeight="1"/>
-    <row r="996" ht="14.25" customHeight="1"/>
-    <row r="997" ht="14.25" customHeight="1"/>
-    <row r="998" ht="14.25" customHeight="1"/>
-    <row r="999" ht="14.25" customHeight="1"/>
-    <row r="1000" ht="14.25" customHeight="1"/>
+    <row r="39" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="40" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="41" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="42" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="43" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="44" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="45" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="46" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="47" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="48" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="49" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="50" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="51" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="52" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="53" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="54" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="55" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="56" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="57" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="58" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="59" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="60" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="61" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="62" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="63" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="64" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="65" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="66" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="67" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="68" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="69" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="70" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="71" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="72" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="73" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="74" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="75" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="76" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="77" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="78" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="79" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="80" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="81" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="82" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="83" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="84" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="85" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="86" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="87" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="88" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="89" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="90" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="91" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="92" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="93" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="94" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="95" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="96" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="97" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="98" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="99" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="100" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="101" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="102" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="103" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="104" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="105" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="106" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="107" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="108" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="109" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="110" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="111" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="112" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="113" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="114" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="115" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="116" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="117" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="118" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="119" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="120" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="121" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="122" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="123" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="124" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="125" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="126" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="127" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="128" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="129" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="130" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="131" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="132" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="133" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="134" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="135" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="136" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="137" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="138" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="139" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="140" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="141" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="142" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="143" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="144" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="145" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="146" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="147" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="148" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="149" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="150" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="151" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="152" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="153" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="154" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="155" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="156" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="157" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="158" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="159" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="160" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="161" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="162" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="163" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="164" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="165" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="166" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="167" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="168" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="169" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="170" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="171" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="172" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="173" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="174" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="175" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="176" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="177" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="178" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="179" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="180" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="181" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="182" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="183" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="184" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="185" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="186" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="187" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="188" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="189" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="190" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="191" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="192" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="193" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="194" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="195" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="196" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="197" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="198" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="199" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="200" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="201" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="202" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="203" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="204" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="205" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="206" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="207" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="208" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="209" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="210" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="211" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="212" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="213" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="214" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="215" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="216" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="217" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="218" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="219" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="220" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="221" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="222" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="223" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="224" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="225" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="226" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="227" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="228" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="229" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="230" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="231" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="232" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="233" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="234" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="235" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="236" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="237" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="238" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="239" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="240" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="241" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="242" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="243" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="244" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="245" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="246" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="247" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="248" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="249" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="250" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="251" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="252" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="253" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="254" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="255" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="256" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="257" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="258" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="259" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="260" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="261" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="262" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="263" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="264" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="265" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="266" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="267" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="268" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="269" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="270" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="271" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="272" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="273" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="274" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="275" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="276" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="277" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="278" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="279" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="280" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="281" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="282" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="283" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="284" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="285" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="286" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="287" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="288" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="289" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="290" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="291" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="292" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="293" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="294" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="295" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="296" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="297" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="298" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="299" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="300" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="301" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="302" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="303" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="304" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="305" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="306" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="307" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="308" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="309" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="310" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="311" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="312" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="313" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="314" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="315" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="316" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="317" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="318" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="319" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="320" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="321" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="322" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="323" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="324" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="325" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="326" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="327" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="328" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="329" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="330" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="331" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="332" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="333" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="334" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="335" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="336" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="337" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="338" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="339" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="340" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="341" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="342" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="343" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="344" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="345" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="346" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="347" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="348" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="349" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="350" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="351" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="352" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="353" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="354" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="355" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="356" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="357" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="358" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="359" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="360" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="361" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="362" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="363" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="364" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="365" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="366" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="367" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="368" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="369" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="370" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="371" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="372" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="373" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="374" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="375" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="376" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="377" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="378" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="379" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="380" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="381" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="382" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="383" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="384" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="385" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="386" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="387" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="388" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="389" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="390" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="391" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="392" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="393" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="394" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="395" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="396" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="397" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="398" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="399" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="400" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="401" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="402" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="403" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="404" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="405" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="406" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="407" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="408" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="409" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="410" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="411" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="412" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="413" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="414" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="415" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="416" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="417" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="418" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="419" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="420" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="421" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="422" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="423" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="424" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="425" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="426" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="427" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="428" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="429" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="430" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="431" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="432" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="433" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="434" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="435" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="436" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="437" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="438" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="439" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="440" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="441" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="442" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="443" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="444" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="445" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="446" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="447" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="448" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="449" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="450" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="451" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="452" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="453" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="454" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="455" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="456" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="457" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="458" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="459" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="460" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="461" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="462" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="463" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="464" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="465" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="466" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="467" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="468" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="469" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="470" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="471" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="472" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="473" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="474" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="475" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="476" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="477" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="478" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="479" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="480" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="481" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="482" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="483" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="484" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="485" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="486" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="487" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="488" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="489" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="490" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="491" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="492" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="493" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="494" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="495" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="496" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="497" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="498" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="499" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="500" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="501" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="502" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="503" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="504" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="505" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="506" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="507" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="508" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="509" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="510" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="511" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="512" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="513" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="514" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="515" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="516" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="517" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="518" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="519" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="520" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="521" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="522" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="523" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="524" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="525" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="526" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="527" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="528" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="529" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="530" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="531" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="532" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="533" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="534" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="535" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="536" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="537" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="538" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="539" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="540" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="541" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="542" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="543" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="544" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="545" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="546" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="547" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="548" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="549" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="550" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="551" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="552" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="553" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="554" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="555" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="556" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="557" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="558" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="559" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="560" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="561" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="562" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="563" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="564" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="565" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="566" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="567" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="568" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="569" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="570" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="571" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="572" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="573" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="574" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="575" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="576" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="577" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="578" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="579" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="580" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="581" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="582" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="583" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="584" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="585" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="586" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="587" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="588" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="589" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="590" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="591" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="592" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="593" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="594" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="595" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="596" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="597" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="598" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="599" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="600" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="601" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="602" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="603" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="604" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="605" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="606" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="607" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="608" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="609" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="610" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="611" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="612" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="613" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="614" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="615" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="616" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="617" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="618" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="619" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="620" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="621" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="622" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="623" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="624" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="625" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="626" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="627" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="628" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="629" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="630" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="631" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="632" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="633" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="634" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="635" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="636" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="637" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="638" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="639" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="640" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="641" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="642" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="643" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="644" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="645" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="646" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="647" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="648" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="649" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="650" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="651" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="652" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="653" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="654" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="655" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="656" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="657" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="658" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="659" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="660" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="661" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="662" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="663" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="664" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="665" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="666" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="667" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="668" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="669" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="670" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="671" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="672" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="673" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="674" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="675" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="676" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="677" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="678" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="679" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="680" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="681" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="682" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="683" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="684" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="685" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="686" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="687" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="688" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="689" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="690" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="691" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="692" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="693" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="694" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="695" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="696" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="697" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="698" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="699" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="700" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="701" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="702" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="703" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="704" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="705" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="706" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="707" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="708" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="709" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="710" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="711" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="712" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="713" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="714" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="715" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="716" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="717" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="718" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="719" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="720" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="721" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="722" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="723" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="724" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="725" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="726" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="727" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="728" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="729" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="730" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="731" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="732" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="733" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="734" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="735" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="736" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="737" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="738" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="739" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="740" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="741" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="742" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="743" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="744" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="745" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="746" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="747" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="748" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="749" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="750" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="751" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="752" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="753" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="754" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="755" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="756" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="757" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="758" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="759" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="760" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="761" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="762" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="763" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="764" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="765" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="766" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="767" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="768" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="769" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="770" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="771" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="772" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="773" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="774" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="775" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="776" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="777" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="778" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="779" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="780" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="781" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="782" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="783" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="784" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="785" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="786" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="787" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="788" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="789" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="790" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="791" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="792" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="793" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="794" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="795" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="796" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="797" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="798" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="799" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="800" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="801" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="802" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="803" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="804" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="805" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="806" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="807" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="808" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="809" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="810" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="811" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="812" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="813" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="814" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="815" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="816" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="817" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="818" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="819" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="820" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="821" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="822" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="823" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="824" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="825" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="826" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="827" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="828" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="829" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="830" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="831" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="832" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="833" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="834" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="835" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="836" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="837" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="838" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="839" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="840" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="841" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="842" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="843" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="844" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="845" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="846" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="847" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="848" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="849" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="850" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="851" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="852" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="853" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="854" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="855" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="856" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="857" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="858" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="859" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="860" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="861" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="862" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="863" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="864" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="865" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="866" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="867" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="868" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="869" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="870" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="871" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="872" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="873" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="874" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="875" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="876" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="877" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="878" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="879" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="880" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="881" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="882" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="883" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="884" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="885" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="886" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="887" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="888" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="889" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="890" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="891" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="892" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="893" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="894" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="895" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="896" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="897" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="898" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="899" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="900" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="901" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="902" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="903" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="904" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="905" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="906" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="907" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="908" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="909" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="910" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="911" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="912" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="913" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="914" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="915" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="916" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="917" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="918" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="919" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="920" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="921" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="922" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="923" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="924" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="925" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="926" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="927" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="928" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="929" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="930" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="931" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="932" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="933" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="934" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="935" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="936" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="937" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="938" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="939" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="940" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="941" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="942" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="943" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="944" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="945" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="946" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="947" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="948" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="949" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="950" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="951" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="952" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="953" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="954" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="955" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="956" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="957" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="958" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="959" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="960" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="961" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="962" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="963" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="964" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="965" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="966" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="967" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="968" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="969" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="970" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="971" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="972" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="973" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="974" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="975" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="976" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="977" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="978" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="979" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="980" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="981" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="982" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="983" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="984" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="985" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="986" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="987" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="988" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="989" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="990" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="991" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="992" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="993" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="994" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="995" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="996" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="997" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="998" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="999" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="1000" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <conditionalFormatting sqref="D28">
     <cfRule type="colorScale" priority="1">
@@ -4963,9 +5026,293 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait"/>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06544134-79B5-406F-92A1-8A8B2B4CDEC3}">
+  <dimension ref="A1:F31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="2.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.81640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.36328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.26953125" customWidth="1"/>
+    <col min="5" max="5" width="2.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3.453125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="1">
+        <v>27</v>
+      </c>
+      <c r="B1" s="9">
+        <v>0.99472947385556632</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="1">
+        <v>7</v>
+      </c>
+      <c r="B2" s="9">
+        <v>0.99468242942843543</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
+        <v>26</v>
+      </c>
+      <c r="B3" s="9">
+        <v>0.99424465870412382</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
+        <v>17</v>
+      </c>
+      <c r="B4" s="9">
+        <v>0.99396502856811608</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" s="1">
+        <v>6</v>
+      </c>
+      <c r="B5" s="9">
+        <v>0.99337305640920737</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
+        <v>16</v>
+      </c>
+      <c r="B6" s="9">
+        <v>0.99272421712076531</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" s="1">
+        <v>10</v>
+      </c>
+      <c r="B7" s="9">
+        <v>0.96426339957797547</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" s="1">
+        <v>8</v>
+      </c>
+      <c r="B8" s="9">
+        <v>0.95904233202428024</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" s="1">
+        <v>28</v>
+      </c>
+      <c r="B9" s="9">
+        <v>0.95435423934761665</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" s="1">
+        <v>2</v>
+      </c>
+      <c r="B10" s="9">
+        <v>0.95196382143454272</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" s="9">
+        <v>0.94387584232915345</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" s="1">
+        <v>3</v>
+      </c>
+      <c r="B12" s="9">
+        <v>0.93911666339592892</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="9">
+        <v>0.93541607644893232</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" s="1">
+        <v>29</v>
+      </c>
+      <c r="B14" s="9">
+        <v>0.9341894072089143</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" s="1">
+        <v>11</v>
+      </c>
+      <c r="B15" s="9">
+        <v>0.93212074238428</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" s="1">
+        <v>1</v>
+      </c>
+      <c r="B16" s="9">
+        <v>0.92022470470618423</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17" s="1">
+        <v>19</v>
+      </c>
+      <c r="B17" s="9">
+        <v>0.91644793151923154</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18" s="1">
+        <v>22</v>
+      </c>
+      <c r="B18" s="9">
+        <v>0.89868074228253603</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A19" s="1">
+        <v>21</v>
+      </c>
+      <c r="B19" s="9">
+        <v>0.86636245338500206</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A20" s="1">
+        <v>4</v>
+      </c>
+      <c r="B20" s="9">
+        <v>0.85945616951951842</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A21" s="1">
+        <v>13</v>
+      </c>
+      <c r="B21" s="9">
+        <v>0.84999585851667903</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A22" s="1">
+        <v>18</v>
+      </c>
+      <c r="B22" s="9">
+        <v>0.84905533191404603</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A23" s="1">
+        <v>20</v>
+      </c>
+      <c r="B23" s="9">
+        <v>0.82421030706126797</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="9">
+        <v>0.77560459012464045</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="9">
+        <v>0.70215835840249952</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A26" s="1">
+        <v>14</v>
+      </c>
+      <c r="B26" s="9">
+        <v>0.68099435971410138</v>
+      </c>
+      <c r="D26" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" s="9">
+        <v>0.61289681215579128</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A28" s="1">
+        <v>15</v>
+      </c>
+      <c r="B28" s="9">
+        <v>0.59231699728530285</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A29" s="1">
+        <v>5</v>
+      </c>
+      <c r="B29" s="9">
+        <v>0.50471250728307693</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A30" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B30" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C30" t="s">
+        <v>17</v>
+      </c>
+      <c r="D30" t="s">
+        <v>18</v>
+      </c>
+      <c r="E30" t="s">
+        <v>19</v>
+      </c>
+      <c r="F30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A31" s="1"/>
+      <c r="B31" s="9"/>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:B31">
+    <sortCondition descending="1" ref="B1:B31"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/analysis/comparisons.xlsx
+++ b/src/analysis/comparisons.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ds\sync\gdrive_ds\My Drive\work\gdrive-workspaces\git\nn_catalyst\src\analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67297506-802D-4D57-A54F-E9AB66D83F1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67B8DE5A-E5C3-425A-BB8F-B7D7A3A3A971}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Comparison" sheetId="1" r:id="rId1"/>
     <sheet name="Plan" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="24">
   <si>
     <t>New Train</t>
   </si>
@@ -104,12 +105,18 @@
   <si>
     <t>Use targets as features</t>
   </si>
+  <si>
+    <t>TRAIN</t>
+  </si>
+  <si>
+    <t>VAL</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -146,8 +153,16 @@
       <color theme="1"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -184,6 +199,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -197,7 +218,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -207,11 +228,11 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -429,8 +450,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BH1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="Z32" sqref="Z32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -3372,183 +3393,183 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:60" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B23" s="11">
+    <row r="23" spans="1:60" s="10" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23" s="9">
         <v>0.92022470470618423</v>
       </c>
-      <c r="C23" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="D23" s="11">
+      <c r="C23" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D23" s="9">
         <v>0.95196382143454272</v>
       </c>
-      <c r="E23" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="F23" s="11">
+      <c r="E23" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="F23" s="9">
         <v>0.93911666339592892</v>
       </c>
-      <c r="G23" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="H23" s="11">
+      <c r="G23" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="H23" s="9">
         <v>0.85945616951951842</v>
       </c>
-      <c r="I23" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="J23" s="11">
+      <c r="I23" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="J23" s="9">
         <v>0.50471250728307693</v>
       </c>
-      <c r="K23" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="L23" s="11">
+      <c r="K23" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="L23" s="9">
         <v>0.99337305640920737</v>
       </c>
-      <c r="M23" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="N23" s="11">
+      <c r="M23" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="N23" s="9">
         <v>0.99468242942843543</v>
       </c>
-      <c r="O23" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="P23" s="11">
+      <c r="O23" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="P23" s="9">
         <v>0.95904233202428024</v>
       </c>
-      <c r="Q23" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="R23" s="11">
+      <c r="Q23" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="R23" s="9">
         <v>0.94387584232915345</v>
       </c>
-      <c r="S23" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="T23" s="11">
+      <c r="S23" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="T23" s="9">
         <v>0.96426339957797547</v>
       </c>
-      <c r="U23" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="V23" s="11">
+      <c r="U23" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="V23" s="9">
         <v>0.93212074238428</v>
       </c>
-      <c r="W23" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="X23" s="11">
+      <c r="W23" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="X23" s="9">
         <v>0.93541607644893232</v>
       </c>
-      <c r="Y23" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="Z23" s="11">
+      <c r="Y23" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z23" s="9">
         <v>0.84999585851667903</v>
       </c>
-      <c r="AA23" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AB23" s="11">
+      <c r="AA23" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB23" s="9">
         <v>0.68099435971410138</v>
       </c>
-      <c r="AC23" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD23" s="11">
+      <c r="AC23" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD23" s="9">
         <v>0.59231699728530285</v>
       </c>
-      <c r="AE23" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF23" s="11">
+      <c r="AE23" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF23" s="9">
         <v>0.99272421712076531</v>
       </c>
-      <c r="AG23" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AH23" s="11">
+      <c r="AG23" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH23" s="9">
         <v>0.99396502856811608</v>
       </c>
-      <c r="AI23" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AJ23" s="11">
+      <c r="AI23" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ23" s="9">
         <v>0.84905533191404603</v>
       </c>
-      <c r="AK23" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AL23" s="11">
+      <c r="AK23" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL23" s="9">
         <v>0.91644793151923154</v>
       </c>
-      <c r="AM23" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AN23" s="11">
+      <c r="AM23" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN23" s="9">
         <v>0.82421030706126797</v>
       </c>
-      <c r="AO23" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AP23" s="11">
+      <c r="AO23" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP23" s="9">
         <v>0.86636245338500206</v>
       </c>
-      <c r="AQ23" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AR23" s="11">
+      <c r="AQ23" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR23" s="9">
         <v>0.89868074228253603</v>
       </c>
-      <c r="AS23" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AT23" s="11">
+      <c r="AS23" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT23" s="9">
         <v>0.77560459012464045</v>
       </c>
-      <c r="AU23" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AV23" s="11">
+      <c r="AU23" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AV23" s="9">
         <v>0.70215835840249952</v>
       </c>
-      <c r="AW23" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AX23" s="11">
+      <c r="AW23" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AX23" s="9">
         <v>0.61289681215579128</v>
       </c>
-      <c r="AY23" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AZ23" s="11">
+      <c r="AY23" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AZ23" s="9">
         <v>0.99424465870412382</v>
       </c>
-      <c r="BA23" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="BB23" s="11">
+      <c r="BA23" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="BB23" s="9">
         <v>0.99472947385556632</v>
       </c>
-      <c r="BC23" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="BD23" s="11">
+      <c r="BC23" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="BD23" s="9">
         <v>0.95435423934761665</v>
       </c>
-      <c r="BE23" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="BF23" s="11">
+      <c r="BE23" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="BF23" s="9">
         <v>0.9341894072089143</v>
       </c>
-      <c r="BG23" s="11"/>
-      <c r="BH23" s="11"/>
+      <c r="BG23" s="9"/>
+      <c r="BH23" s="9"/>
     </row>
     <row r="24" spans="1:60" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
@@ -5033,284 +5054,781 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06544134-79B5-406F-92A1-8A8B2B4CDEC3}">
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:BO32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="2.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.81640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.81640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.36328125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.26953125" customWidth="1"/>
     <col min="5" max="5" width="2.453125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="3.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:67" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:67" x14ac:dyDescent="0.35">
+      <c r="A2" s="1">
+        <v>27</v>
+      </c>
+      <c r="B2" s="3">
+        <v>0.99472947385556632</v>
+      </c>
+      <c r="H2" s="1">
+        <v>7</v>
+      </c>
+      <c r="I2" s="3">
+        <v>0.99527596581046596</v>
+      </c>
+    </row>
+    <row r="3" spans="1:67" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
+        <v>7</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0.99468242942843543</v>
+      </c>
+      <c r="H3" s="1">
+        <v>17</v>
+      </c>
+      <c r="I3" s="3">
+        <v>0.99491185383680336</v>
+      </c>
+    </row>
+    <row r="4" spans="1:67" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
+        <v>26</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0.99424465870412382</v>
+      </c>
+      <c r="H4" s="1">
+        <v>6</v>
+      </c>
+      <c r="I4" s="3">
+        <v>0.99437895987136293</v>
+      </c>
+    </row>
+    <row r="5" spans="1:67" x14ac:dyDescent="0.35">
+      <c r="A5" s="1">
+        <v>17</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0.99396502856811608</v>
+      </c>
+      <c r="H5" s="1">
+        <v>27</v>
+      </c>
+      <c r="I5" s="3">
+        <v>0.99394463161736346</v>
+      </c>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3"/>
+      <c r="V5" s="3"/>
+      <c r="W5" s="3"/>
+      <c r="X5" s="3"/>
+      <c r="Y5" s="3"/>
+      <c r="Z5" s="3"/>
+      <c r="AA5" s="3"/>
+      <c r="AB5" s="3"/>
+      <c r="AC5" s="3"/>
+      <c r="AD5" s="3"/>
+      <c r="AE5" s="3"/>
+      <c r="AF5" s="3"/>
+      <c r="AG5" s="3"/>
+      <c r="AH5" s="4"/>
+      <c r="AI5" s="3"/>
+      <c r="AJ5" s="4"/>
+      <c r="AK5" s="3"/>
+      <c r="AL5" s="4"/>
+      <c r="AM5" s="3"/>
+      <c r="AN5" s="3"/>
+      <c r="AO5" s="3"/>
+      <c r="AP5" s="3"/>
+      <c r="AQ5" s="3"/>
+      <c r="AR5" s="4"/>
+      <c r="AS5" s="3"/>
+      <c r="AT5" s="3"/>
+      <c r="AU5" s="3"/>
+      <c r="AV5" s="4"/>
+      <c r="AW5" s="3"/>
+      <c r="AX5" s="4"/>
+      <c r="AY5" s="3"/>
+      <c r="AZ5" s="3"/>
+      <c r="BA5" s="3"/>
+      <c r="BB5" s="4"/>
+      <c r="BC5" s="3"/>
+      <c r="BD5" s="4"/>
+      <c r="BE5" s="3"/>
+      <c r="BF5" s="4"/>
+      <c r="BG5" s="3"/>
+      <c r="BH5" s="3"/>
+      <c r="BI5" s="3"/>
+      <c r="BJ5" s="3"/>
+      <c r="BK5" s="3"/>
+      <c r="BL5" s="3"/>
+      <c r="BM5" s="3"/>
+      <c r="BN5" s="3"/>
+      <c r="BO5" s="3"/>
+    </row>
+    <row r="6" spans="1:67" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
+        <v>6</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0.99337305640920737</v>
+      </c>
+      <c r="H6" s="1">
+        <v>16</v>
+      </c>
+      <c r="I6" s="3">
+        <v>0.99331733620172458</v>
+      </c>
+    </row>
+    <row r="7" spans="1:67" x14ac:dyDescent="0.35">
+      <c r="A7" s="1">
+        <v>16</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0.99272421712076531</v>
+      </c>
+      <c r="H7" s="1">
+        <v>26</v>
+      </c>
+      <c r="I7" s="3">
+        <v>0.99293664397418824</v>
+      </c>
+    </row>
+    <row r="8" spans="1:67" x14ac:dyDescent="0.35">
+      <c r="A8" s="1">
+        <v>10</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0.96426339957797547</v>
+      </c>
+      <c r="H8" s="1">
+        <v>10</v>
+      </c>
+      <c r="I8" s="3">
+        <v>0.96810670985821579</v>
+      </c>
+    </row>
+    <row r="9" spans="1:67" x14ac:dyDescent="0.35">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3">
+        <v>0.95904233202428024</v>
+      </c>
+      <c r="H9" s="1">
+        <v>8</v>
+      </c>
+      <c r="I9" s="3">
+        <v>0.96244206772101393</v>
+      </c>
+    </row>
+    <row r="10" spans="1:67" x14ac:dyDescent="0.35">
+      <c r="A10" s="1">
+        <v>28</v>
+      </c>
+      <c r="B10" s="3">
+        <v>0.95435423934761665</v>
+      </c>
+      <c r="H10" s="1">
+        <v>28</v>
+      </c>
+      <c r="I10" s="3">
+        <v>0.96060311419499134</v>
+      </c>
+    </row>
+    <row r="11" spans="1:67" x14ac:dyDescent="0.35">
+      <c r="A11" s="1">
+        <v>2</v>
+      </c>
+      <c r="B11" s="3">
+        <v>0.95196382143454272</v>
+      </c>
+      <c r="H11" s="1">
+        <v>2</v>
+      </c>
+      <c r="I11" s="3">
+        <v>0.9530119454700795</v>
+      </c>
+    </row>
+    <row r="12" spans="1:67" x14ac:dyDescent="0.35">
+      <c r="A12" s="1">
+        <v>9</v>
+      </c>
+      <c r="B12" s="3">
+        <v>0.94387584232915345</v>
+      </c>
+      <c r="H12" s="1">
+        <v>11</v>
+      </c>
+      <c r="I12" s="3">
+        <v>0.94320280178419758</v>
+      </c>
+    </row>
+    <row r="13" spans="1:67" x14ac:dyDescent="0.35">
+      <c r="A13" s="1">
+        <v>3</v>
+      </c>
+      <c r="B13" s="3">
+        <v>0.93911666339592892</v>
+      </c>
+      <c r="H13" s="1">
+        <v>9</v>
+      </c>
+      <c r="I13" s="3">
+        <v>0.93878180707863124</v>
+      </c>
+    </row>
+    <row r="14" spans="1:67" x14ac:dyDescent="0.35">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" s="3">
+        <v>0.93541607644893232</v>
+      </c>
+      <c r="H14" s="1">
+        <v>29</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0.93396930675416812</v>
+      </c>
+    </row>
+    <row r="15" spans="1:67" x14ac:dyDescent="0.35">
+      <c r="A15" s="1">
+        <v>29</v>
+      </c>
+      <c r="B15" s="3">
+        <v>0.9341894072089143</v>
+      </c>
+      <c r="H15" s="1">
+        <v>12</v>
+      </c>
+      <c r="I15" s="3">
+        <v>0.93234525277132207</v>
+      </c>
+    </row>
+    <row r="16" spans="1:67" x14ac:dyDescent="0.35">
+      <c r="A16" s="1">
+        <v>11</v>
+      </c>
+      <c r="B16" s="3">
+        <v>0.93212074238428</v>
+      </c>
+      <c r="H16" s="1">
+        <v>3</v>
+      </c>
+      <c r="I16" s="3">
+        <v>0.93154429925905391</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A17" s="1">
+        <v>1</v>
+      </c>
+      <c r="B17" s="3">
+        <v>0.92022470470618423</v>
+      </c>
+      <c r="H17" s="1">
+        <v>1</v>
+      </c>
+      <c r="I17" s="3">
+        <v>0.92690965042717677</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A18" s="1">
+        <v>19</v>
+      </c>
+      <c r="B18" s="3">
+        <v>0.91644793151923154</v>
+      </c>
+      <c r="H18" s="1">
+        <v>19</v>
+      </c>
+      <c r="I18" s="3">
+        <v>0.91984425879172149</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A19" s="1">
+        <v>22</v>
+      </c>
+      <c r="B19" s="3">
+        <v>0.89868074228253603</v>
+      </c>
+      <c r="H19" s="1">
+        <v>22</v>
+      </c>
+      <c r="I19" s="3">
+        <v>0.87890172827952473</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A20" s="1">
+        <v>21</v>
+      </c>
+      <c r="B20" s="3">
+        <v>0.86636245338500206</v>
+      </c>
+      <c r="H20" s="1">
+        <v>29</v>
+      </c>
+      <c r="I20" s="3">
+        <v>0.87532845291386929</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A21" s="1">
+        <v>4</v>
+      </c>
+      <c r="B21" s="3">
+        <v>0.85945616951951842</v>
+      </c>
+      <c r="H21" s="1">
+        <v>4</v>
+      </c>
+      <c r="I21" s="4">
+        <v>0.86621721230065496</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A22" s="1">
+        <v>13</v>
+      </c>
+      <c r="B22" s="3">
+        <v>0.84999585851667903</v>
+      </c>
+      <c r="H22" s="1">
+        <v>21</v>
+      </c>
+      <c r="I22" s="4">
+        <v>0.85921718248605017</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A23" s="1">
+        <v>18</v>
+      </c>
+      <c r="B23" s="3">
+        <v>0.84905533191404603</v>
+      </c>
+      <c r="H23" s="1">
+        <v>13</v>
+      </c>
+      <c r="I23" s="4">
+        <v>0.84928074498774064</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A24" s="1">
+        <v>20</v>
+      </c>
+      <c r="B24" s="3">
+        <v>0.82421030706126797</v>
+      </c>
+      <c r="H24" s="1">
+        <v>18</v>
+      </c>
+      <c r="I24" s="4">
+        <v>0.84054648867451054</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" s="3">
+        <v>0.77560459012464045</v>
+      </c>
+      <c r="H25" s="1">
+        <v>20</v>
+      </c>
+      <c r="I25" s="4">
+        <v>0.83101039060569515</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" s="3">
+        <v>0.70215835840249952</v>
+      </c>
+      <c r="H26" s="1">
+        <v>23</v>
+      </c>
+      <c r="I26" s="4">
+        <v>0.7755551087065603</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A27" s="1">
+        <v>14</v>
+      </c>
+      <c r="B27" s="3">
+        <v>0.68099435971410138</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="H27" s="1">
+        <v>14</v>
+      </c>
+      <c r="I27" s="4">
+        <v>0.71963975013672843</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A28" s="1">
+        <v>25</v>
+      </c>
+      <c r="B28" s="3">
+        <v>0.61289681215579128</v>
+      </c>
+      <c r="H28" s="1">
+        <v>24</v>
+      </c>
+      <c r="I28" s="4">
+        <v>0.69610966854348622</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A29" s="1">
+        <v>15</v>
+      </c>
+      <c r="B29" s="3">
+        <v>0.59231699728530285</v>
+      </c>
+      <c r="H29" s="1">
+        <v>15</v>
+      </c>
+      <c r="I29" s="4">
+        <v>0.63576531836306871</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A30" s="1">
+        <v>5</v>
+      </c>
+      <c r="B30" s="3">
+        <v>0.50471250728307693</v>
+      </c>
+      <c r="H30" s="1">
+        <v>25</v>
+      </c>
+      <c r="I30" s="4">
+        <v>0.6136053272727986</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A31" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B31" t="s">
+        <v>16</v>
+      </c>
+      <c r="C31" t="s">
+        <v>17</v>
+      </c>
+      <c r="D31" t="s">
+        <v>18</v>
+      </c>
+      <c r="E31" t="s">
+        <v>19</v>
+      </c>
+      <c r="F31" t="s">
+        <v>20</v>
+      </c>
+      <c r="H31" s="1">
+        <v>5</v>
+      </c>
+      <c r="I31" s="4">
+        <v>0.48314960872291079</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A32" s="1"/>
+      <c r="B32" s="3"/>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B32">
+    <sortCondition descending="1" ref="B2:B32"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D72FB04-F7EA-4984-A93E-FCC156CB66A7}">
+  <dimension ref="A1:B29"/>
+  <sheetViews>
+    <sheetView topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30:B59"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1">
-        <v>27</v>
-      </c>
-      <c r="B1" s="9">
-        <v>0.99472947385556632</v>
+        <v>1</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
-        <v>7</v>
-      </c>
-      <c r="B2" s="9">
-        <v>0.99468242942843543</v>
+        <v>2</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
-        <v>26</v>
-      </c>
-      <c r="B3" s="9">
-        <v>0.99424465870412382</v>
+        <v>3</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
-        <v>17</v>
-      </c>
-      <c r="B4" s="9">
-        <v>0.99396502856811608</v>
+        <v>4</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
-        <v>6</v>
-      </c>
-      <c r="B5" s="9">
-        <v>0.99337305640920737</v>
+        <v>5</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
-        <v>16</v>
-      </c>
-      <c r="B6" s="9">
-        <v>0.99272421712076531</v>
+        <v>6</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
-        <v>10</v>
-      </c>
-      <c r="B7" s="9">
-        <v>0.96426339957797547</v>
+        <v>7</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>8</v>
       </c>
-      <c r="B8" s="9">
-        <v>0.95904233202428024</v>
+      <c r="B8" s="3" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
-        <v>28</v>
-      </c>
-      <c r="B9" s="9">
-        <v>0.95435423934761665</v>
+        <v>9</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
-        <v>2</v>
-      </c>
-      <c r="B10" s="9">
-        <v>0.95196382143454272</v>
+        <v>10</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11" s="9">
-        <v>0.94387584232915345</v>
+        <v>11</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
-        <v>3</v>
-      </c>
-      <c r="B12" s="9">
-        <v>0.93911666339592892</v>
+        <v>12</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
-        <v>12</v>
-      </c>
-      <c r="B13" s="9">
-        <v>0.93541607644893232</v>
+        <v>13</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
-        <v>29</v>
-      </c>
-      <c r="B14" s="9">
-        <v>0.9341894072089143</v>
+        <v>14</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
-        <v>11</v>
-      </c>
-      <c r="B15" s="9">
-        <v>0.93212074238428</v>
+        <v>15</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
-        <v>1</v>
-      </c>
-      <c r="B16" s="9">
-        <v>0.92022470470618423</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+        <v>16</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
+        <v>17</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" s="1">
+        <v>18</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" s="1">
         <v>19</v>
       </c>
-      <c r="B17" s="9">
-        <v>0.91644793151923154</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A18" s="1">
+      <c r="B19" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" s="1">
+        <v>20</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" s="1">
+        <v>21</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" s="1">
         <v>22</v>
       </c>
-      <c r="B18" s="9">
-        <v>0.89868074228253603</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A19" s="1">
-        <v>21</v>
-      </c>
-      <c r="B19" s="9">
-        <v>0.86636245338500206</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A20" s="1">
-        <v>4</v>
-      </c>
-      <c r="B20" s="9">
-        <v>0.85945616951951842</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A21" s="1">
-        <v>13</v>
-      </c>
-      <c r="B21" s="9">
-        <v>0.84999585851667903</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A22" s="1">
-        <v>18</v>
-      </c>
-      <c r="B22" s="9">
-        <v>0.84905533191404603</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B22" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
-        <v>20</v>
-      </c>
-      <c r="B23" s="9">
-        <v>0.82421030706126797</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+        <v>23</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
-        <v>23</v>
-      </c>
-      <c r="B24" s="9">
-        <v>0.77560459012464045</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+        <v>24</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
-        <v>24</v>
-      </c>
-      <c r="B25" s="9">
-        <v>0.70215835840249952</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
-        <v>14</v>
-      </c>
-      <c r="B26" s="9">
-        <v>0.68099435971410138</v>
-      </c>
-      <c r="D26" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
-        <v>25</v>
-      </c>
-      <c r="B27" s="9">
-        <v>0.61289681215579128</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
-        <v>15</v>
-      </c>
-      <c r="B28" s="9">
-        <v>0.59231699728530285</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+        <v>28</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
-        <v>5</v>
-      </c>
-      <c r="B29" s="9">
-        <v>0.50471250728307693</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A30" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B30" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C30" t="s">
-        <v>17</v>
-      </c>
-      <c r="D30" t="s">
-        <v>18</v>
-      </c>
-      <c r="E30" t="s">
-        <v>19</v>
-      </c>
-      <c r="F30" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A31" s="1"/>
-      <c r="B31" s="9"/>
+        <v>29</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:B31">
-    <sortCondition descending="1" ref="B1:B31"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:B66">
+    <sortCondition descending="1" ref="B1:B66"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
